--- a/DOKUMENT/PENGUJIAN/pengujian public.xlsx
+++ b/DOKUMENT/PENGUJIAN/pengujian public.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\PENGUJIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A687032-6496-464D-8145-98CAC77601EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E648B6-32B6-474A-9B3C-299EA524094C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,7 +311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -321,6 +321,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,6 +346,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -376,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -487,11 +494,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -521,6 +580,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,23 +632,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1744,8 +1820,8 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L63" sqref="L63"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1763,7 +1839,7 @@
     <col min="11" max="11" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="5" customWidth="1"/>
     <col min="13" max="13" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="5" customWidth="1"/>
     <col min="15" max="15" width="18.140625" style="5" customWidth="1"/>
     <col min="16" max="18" width="18.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -1772,7 +1848,7 @@
     <col min="27" max="16384" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
@@ -1819,44 +1895,44 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3">
-        <v>4</v>
-      </c>
-      <c r="I2" s="3">
-        <v>4</v>
-      </c>
-      <c r="J2" s="3">
-        <v>4</v>
-      </c>
-      <c r="K2" s="3">
-        <v>4</v>
-      </c>
-      <c r="L2" s="3">
-        <v>4</v>
-      </c>
-      <c r="M2" s="3">
+      <c r="C2" s="31">
+        <v>4</v>
+      </c>
+      <c r="D2" s="32">
+        <v>4</v>
+      </c>
+      <c r="E2" s="32">
+        <v>3</v>
+      </c>
+      <c r="F2" s="32">
+        <v>4</v>
+      </c>
+      <c r="G2" s="32">
+        <v>3</v>
+      </c>
+      <c r="H2" s="32">
+        <v>4</v>
+      </c>
+      <c r="I2" s="32">
+        <v>4</v>
+      </c>
+      <c r="J2" s="32">
+        <v>4</v>
+      </c>
+      <c r="K2" s="32">
+        <v>4</v>
+      </c>
+      <c r="L2" s="32">
+        <v>4</v>
+      </c>
+      <c r="M2" s="32">
         <v>3</v>
       </c>
       <c r="N2" s="4">
@@ -1867,44 +1943,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3">
-        <v>4</v>
-      </c>
-      <c r="K3" s="3">
-        <v>4</v>
-      </c>
-      <c r="L3" s="3">
-        <v>3</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="C3" s="33">
+        <v>4</v>
+      </c>
+      <c r="D3" s="34">
+        <v>3</v>
+      </c>
+      <c r="E3" s="34">
+        <v>4</v>
+      </c>
+      <c r="F3" s="34">
+        <v>4</v>
+      </c>
+      <c r="G3" s="34">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34">
+        <v>3</v>
+      </c>
+      <c r="I3" s="34">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34">
+        <v>4</v>
+      </c>
+      <c r="K3" s="34">
+        <v>4</v>
+      </c>
+      <c r="L3" s="34">
+        <v>3</v>
+      </c>
+      <c r="M3" s="34">
         <v>3</v>
       </c>
       <c r="N3" s="4">
@@ -1915,44 +1991,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3">
-        <v>4</v>
-      </c>
-      <c r="I4" s="3">
-        <v>4</v>
-      </c>
-      <c r="J4" s="3">
-        <v>4</v>
-      </c>
-      <c r="K4" s="3">
-        <v>3</v>
-      </c>
-      <c r="L4" s="3">
-        <v>4</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="C4" s="33">
+        <v>4</v>
+      </c>
+      <c r="D4" s="34">
+        <v>4</v>
+      </c>
+      <c r="E4" s="34">
+        <v>4</v>
+      </c>
+      <c r="F4" s="34">
+        <v>3</v>
+      </c>
+      <c r="G4" s="34">
+        <v>4</v>
+      </c>
+      <c r="H4" s="34">
+        <v>4</v>
+      </c>
+      <c r="I4" s="34">
+        <v>4</v>
+      </c>
+      <c r="J4" s="34">
+        <v>4</v>
+      </c>
+      <c r="K4" s="34">
+        <v>3</v>
+      </c>
+      <c r="L4" s="34">
+        <v>4</v>
+      </c>
+      <c r="M4" s="34">
         <v>4</v>
       </c>
       <c r="N4" s="4">
@@ -1963,44 +2039,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3">
-        <v>4</v>
-      </c>
-      <c r="J5" s="3">
-        <v>4</v>
-      </c>
-      <c r="K5" s="3">
-        <v>4</v>
-      </c>
-      <c r="L5" s="3">
-        <v>4</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="C5" s="33">
+        <v>4</v>
+      </c>
+      <c r="D5" s="34">
+        <v>4</v>
+      </c>
+      <c r="E5" s="34">
+        <v>4</v>
+      </c>
+      <c r="F5" s="34">
+        <v>3</v>
+      </c>
+      <c r="G5" s="34">
+        <v>4</v>
+      </c>
+      <c r="H5" s="34">
+        <v>3</v>
+      </c>
+      <c r="I5" s="34">
+        <v>4</v>
+      </c>
+      <c r="J5" s="34">
+        <v>4</v>
+      </c>
+      <c r="K5" s="34">
+        <v>4</v>
+      </c>
+      <c r="L5" s="34">
+        <v>4</v>
+      </c>
+      <c r="M5" s="34">
         <v>3</v>
       </c>
       <c r="N5" s="4">
@@ -2011,44 +2087,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4</v>
-      </c>
-      <c r="I6" s="3">
-        <v>4</v>
-      </c>
-      <c r="J6" s="3">
-        <v>4</v>
-      </c>
-      <c r="K6" s="3">
-        <v>4</v>
-      </c>
-      <c r="L6" s="3">
-        <v>4</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="C6" s="33">
+        <v>4</v>
+      </c>
+      <c r="D6" s="34">
+        <v>3</v>
+      </c>
+      <c r="E6" s="34">
+        <v>4</v>
+      </c>
+      <c r="F6" s="34">
+        <v>3</v>
+      </c>
+      <c r="G6" s="34">
+        <v>4</v>
+      </c>
+      <c r="H6" s="34">
+        <v>4</v>
+      </c>
+      <c r="I6" s="34">
+        <v>4</v>
+      </c>
+      <c r="J6" s="34">
+        <v>4</v>
+      </c>
+      <c r="K6" s="34">
+        <v>4</v>
+      </c>
+      <c r="L6" s="34">
+        <v>4</v>
+      </c>
+      <c r="M6" s="34">
         <v>3</v>
       </c>
       <c r="N6" s="4">
@@ -2059,44 +2135,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3">
-        <v>4</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4</v>
-      </c>
-      <c r="H7" s="3">
-        <v>4</v>
-      </c>
-      <c r="I7" s="3">
-        <v>4</v>
-      </c>
-      <c r="J7" s="3">
-        <v>4</v>
-      </c>
-      <c r="K7" s="3">
-        <v>4</v>
-      </c>
-      <c r="L7" s="3">
-        <v>4</v>
-      </c>
-      <c r="M7" s="3">
+      <c r="C7" s="33">
+        <v>4</v>
+      </c>
+      <c r="D7" s="34">
+        <v>4</v>
+      </c>
+      <c r="E7" s="34">
+        <v>4</v>
+      </c>
+      <c r="F7" s="34">
+        <v>4</v>
+      </c>
+      <c r="G7" s="34">
+        <v>4</v>
+      </c>
+      <c r="H7" s="34">
+        <v>4</v>
+      </c>
+      <c r="I7" s="34">
+        <v>4</v>
+      </c>
+      <c r="J7" s="34">
+        <v>4</v>
+      </c>
+      <c r="K7" s="34">
+        <v>4</v>
+      </c>
+      <c r="L7" s="34">
+        <v>4</v>
+      </c>
+      <c r="M7" s="34">
         <v>4</v>
       </c>
       <c r="N7" s="4">
@@ -2107,44 +2183,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="C8" s="33">
+        <v>4</v>
+      </c>
+      <c r="D8" s="34">
+        <v>4</v>
+      </c>
+      <c r="E8" s="34">
+        <v>4</v>
+      </c>
+      <c r="F8" s="34">
+        <v>3</v>
+      </c>
+      <c r="G8" s="34">
+        <v>4</v>
+      </c>
+      <c r="H8" s="34">
+        <v>4</v>
+      </c>
+      <c r="I8" s="34">
+        <v>4</v>
+      </c>
+      <c r="J8" s="34">
+        <v>4</v>
+      </c>
+      <c r="K8" s="34">
+        <v>4</v>
+      </c>
+      <c r="L8" s="34">
+        <v>3</v>
+      </c>
+      <c r="M8" s="34">
         <v>4</v>
       </c>
       <c r="N8" s="4">
@@ -2155,44 +2231,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="C9" s="33">
+        <v>4</v>
+      </c>
+      <c r="D9" s="34">
+        <v>3</v>
+      </c>
+      <c r="E9" s="34">
+        <v>4</v>
+      </c>
+      <c r="F9" s="34">
+        <v>4</v>
+      </c>
+      <c r="G9" s="34">
+        <v>4</v>
+      </c>
+      <c r="H9" s="34">
+        <v>4</v>
+      </c>
+      <c r="I9" s="34">
+        <v>4</v>
+      </c>
+      <c r="J9" s="34">
+        <v>4</v>
+      </c>
+      <c r="K9" s="34">
+        <v>4</v>
+      </c>
+      <c r="L9" s="34">
+        <v>3</v>
+      </c>
+      <c r="M9" s="34">
         <v>4</v>
       </c>
       <c r="N9" s="4">
@@ -2203,44 +2279,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="C10" s="33">
+        <v>4</v>
+      </c>
+      <c r="D10" s="34">
+        <v>3</v>
+      </c>
+      <c r="E10" s="34">
+        <v>3</v>
+      </c>
+      <c r="F10" s="34">
+        <v>4</v>
+      </c>
+      <c r="G10" s="34">
+        <v>4</v>
+      </c>
+      <c r="H10" s="34">
+        <v>4</v>
+      </c>
+      <c r="I10" s="34">
+        <v>4</v>
+      </c>
+      <c r="J10" s="34">
+        <v>3</v>
+      </c>
+      <c r="K10" s="34">
+        <v>3</v>
+      </c>
+      <c r="L10" s="34">
+        <v>3</v>
+      </c>
+      <c r="M10" s="34">
         <v>4</v>
       </c>
       <c r="N10" s="4">
@@ -2251,44 +2327,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3">
-        <v>4</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="3">
-        <v>4</v>
-      </c>
-      <c r="J11" s="3">
-        <v>4</v>
-      </c>
-      <c r="K11" s="3">
-        <v>4</v>
-      </c>
-      <c r="L11" s="3">
-        <v>4</v>
-      </c>
-      <c r="M11" s="3">
+      <c r="C11" s="33">
+        <v>4</v>
+      </c>
+      <c r="D11" s="34">
+        <v>4</v>
+      </c>
+      <c r="E11" s="34">
+        <v>4</v>
+      </c>
+      <c r="F11" s="34">
+        <v>3</v>
+      </c>
+      <c r="G11" s="34">
+        <v>4</v>
+      </c>
+      <c r="H11" s="34">
+        <v>4</v>
+      </c>
+      <c r="I11" s="34">
+        <v>4</v>
+      </c>
+      <c r="J11" s="34">
+        <v>4</v>
+      </c>
+      <c r="K11" s="34">
+        <v>4</v>
+      </c>
+      <c r="L11" s="34">
+        <v>4</v>
+      </c>
+      <c r="M11" s="34">
         <v>4</v>
       </c>
       <c r="N11" s="4">
@@ -2299,44 +2375,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="3">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="C12" s="33">
+        <v>4</v>
+      </c>
+      <c r="D12" s="34">
+        <v>4</v>
+      </c>
+      <c r="E12" s="34">
+        <v>4</v>
+      </c>
+      <c r="F12" s="34">
+        <v>4</v>
+      </c>
+      <c r="G12" s="34">
+        <v>3</v>
+      </c>
+      <c r="H12" s="34">
+        <v>4</v>
+      </c>
+      <c r="I12" s="34">
+        <v>3</v>
+      </c>
+      <c r="J12" s="34">
+        <v>4</v>
+      </c>
+      <c r="K12" s="34">
+        <v>4</v>
+      </c>
+      <c r="L12" s="34">
+        <v>4</v>
+      </c>
+      <c r="M12" s="34">
         <v>3</v>
       </c>
       <c r="N12" s="4">
@@ -2347,44 +2423,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3</v>
-      </c>
-      <c r="J13" s="3">
-        <v>4</v>
-      </c>
-      <c r="K13" s="3">
-        <v>4</v>
-      </c>
-      <c r="L13" s="3">
-        <v>3</v>
-      </c>
-      <c r="M13" s="3">
+      <c r="C13" s="33">
+        <v>3</v>
+      </c>
+      <c r="D13" s="34">
+        <v>3</v>
+      </c>
+      <c r="E13" s="34">
+        <v>4</v>
+      </c>
+      <c r="F13" s="34">
+        <v>4</v>
+      </c>
+      <c r="G13" s="34">
+        <v>3</v>
+      </c>
+      <c r="H13" s="34">
+        <v>4</v>
+      </c>
+      <c r="I13" s="34">
+        <v>3</v>
+      </c>
+      <c r="J13" s="34">
+        <v>4</v>
+      </c>
+      <c r="K13" s="34">
+        <v>4</v>
+      </c>
+      <c r="L13" s="34">
+        <v>3</v>
+      </c>
+      <c r="M13" s="34">
         <v>4</v>
       </c>
       <c r="N13" s="4">
@@ -2395,44 +2471,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="3">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="C14" s="33">
+        <v>4</v>
+      </c>
+      <c r="D14" s="34">
+        <v>4</v>
+      </c>
+      <c r="E14" s="34">
+        <v>3</v>
+      </c>
+      <c r="F14" s="34">
+        <v>3</v>
+      </c>
+      <c r="G14" s="34">
+        <v>4</v>
+      </c>
+      <c r="H14" s="34">
+        <v>4</v>
+      </c>
+      <c r="I14" s="34">
+        <v>4</v>
+      </c>
+      <c r="J14" s="34">
+        <v>4</v>
+      </c>
+      <c r="K14" s="34">
+        <v>4</v>
+      </c>
+      <c r="L14" s="34">
+        <v>3</v>
+      </c>
+      <c r="M14" s="34">
         <v>3</v>
       </c>
       <c r="N14" s="4">
@@ -2443,44 +2519,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="C15" s="33">
+        <v>4</v>
+      </c>
+      <c r="D15" s="34">
+        <v>4</v>
+      </c>
+      <c r="E15" s="34">
+        <v>3</v>
+      </c>
+      <c r="F15" s="34">
+        <v>4</v>
+      </c>
+      <c r="G15" s="34">
+        <v>4</v>
+      </c>
+      <c r="H15" s="34">
+        <v>4</v>
+      </c>
+      <c r="I15" s="34">
+        <v>3</v>
+      </c>
+      <c r="J15" s="34">
+        <v>4</v>
+      </c>
+      <c r="K15" s="34">
+        <v>4</v>
+      </c>
+      <c r="L15" s="34">
+        <v>4</v>
+      </c>
+      <c r="M15" s="34">
         <v>3</v>
       </c>
       <c r="N15" s="4">
@@ -2491,44 +2567,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3">
-        <v>4</v>
-      </c>
-      <c r="H16" s="3">
-        <v>3</v>
-      </c>
-      <c r="I16" s="3">
-        <v>3</v>
-      </c>
-      <c r="J16" s="3">
-        <v>4</v>
-      </c>
-      <c r="K16" s="3">
-        <v>3</v>
-      </c>
-      <c r="L16" s="3">
-        <v>3</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="C16" s="33">
+        <v>3</v>
+      </c>
+      <c r="D16" s="34">
+        <v>4</v>
+      </c>
+      <c r="E16" s="34">
+        <v>4</v>
+      </c>
+      <c r="F16" s="34">
+        <v>3</v>
+      </c>
+      <c r="G16" s="34">
+        <v>4</v>
+      </c>
+      <c r="H16" s="34">
+        <v>3</v>
+      </c>
+      <c r="I16" s="34">
+        <v>3</v>
+      </c>
+      <c r="J16" s="34">
+        <v>4</v>
+      </c>
+      <c r="K16" s="34">
+        <v>3</v>
+      </c>
+      <c r="L16" s="34">
+        <v>3</v>
+      </c>
+      <c r="M16" s="34">
         <v>4</v>
       </c>
       <c r="N16" s="4">
@@ -2539,44 +2615,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="C17" s="33">
+        <v>4</v>
+      </c>
+      <c r="D17" s="34">
+        <v>4</v>
+      </c>
+      <c r="E17" s="34">
+        <v>3</v>
+      </c>
+      <c r="F17" s="34">
+        <v>4</v>
+      </c>
+      <c r="G17" s="34">
+        <v>4</v>
+      </c>
+      <c r="H17" s="34">
+        <v>4</v>
+      </c>
+      <c r="I17" s="34">
+        <v>4</v>
+      </c>
+      <c r="J17" s="34">
+        <v>4</v>
+      </c>
+      <c r="K17" s="34">
+        <v>4</v>
+      </c>
+      <c r="L17" s="34">
+        <v>4</v>
+      </c>
+      <c r="M17" s="34">
         <v>3</v>
       </c>
       <c r="N17" s="4">
@@ -2587,44 +2663,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="C18" s="33">
+        <v>4</v>
+      </c>
+      <c r="D18" s="34">
+        <v>4</v>
+      </c>
+      <c r="E18" s="34">
+        <v>4</v>
+      </c>
+      <c r="F18" s="34">
+        <v>4</v>
+      </c>
+      <c r="G18" s="34">
+        <v>3</v>
+      </c>
+      <c r="H18" s="34">
+        <v>4</v>
+      </c>
+      <c r="I18" s="34">
+        <v>4</v>
+      </c>
+      <c r="J18" s="34">
+        <v>4</v>
+      </c>
+      <c r="K18" s="34">
+        <v>3</v>
+      </c>
+      <c r="L18" s="34">
+        <v>4</v>
+      </c>
+      <c r="M18" s="34">
         <v>4</v>
       </c>
       <c r="N18" s="4">
@@ -2635,44 +2711,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4</v>
-      </c>
-      <c r="H19" s="1">
-        <v>3</v>
-      </c>
-      <c r="I19" s="1">
-        <v>3</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
-      <c r="K19" s="1">
-        <v>4</v>
-      </c>
-      <c r="L19" s="1">
-        <v>3</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="C19" s="33">
+        <v>4</v>
+      </c>
+      <c r="D19" s="34">
+        <v>4</v>
+      </c>
+      <c r="E19" s="34">
+        <v>4</v>
+      </c>
+      <c r="F19" s="34">
+        <v>4</v>
+      </c>
+      <c r="G19" s="34">
+        <v>4</v>
+      </c>
+      <c r="H19" s="34">
+        <v>3</v>
+      </c>
+      <c r="I19" s="34">
+        <v>3</v>
+      </c>
+      <c r="J19" s="34">
+        <v>4</v>
+      </c>
+      <c r="K19" s="34">
+        <v>4</v>
+      </c>
+      <c r="L19" s="34">
+        <v>3</v>
+      </c>
+      <c r="M19" s="34">
         <v>4</v>
       </c>
       <c r="N19" s="4">
@@ -2683,44 +2759,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1">
-        <v>4</v>
-      </c>
-      <c r="H20" s="1">
-        <v>4</v>
-      </c>
-      <c r="I20" s="1">
-        <v>4</v>
-      </c>
-      <c r="J20" s="1">
-        <v>3</v>
-      </c>
-      <c r="K20" s="1">
-        <v>4</v>
-      </c>
-      <c r="L20" s="1">
-        <v>3</v>
-      </c>
-      <c r="M20" s="1">
+      <c r="C20" s="33">
+        <v>4</v>
+      </c>
+      <c r="D20" s="34">
+        <v>4</v>
+      </c>
+      <c r="E20" s="34">
+        <v>4</v>
+      </c>
+      <c r="F20" s="34">
+        <v>4</v>
+      </c>
+      <c r="G20" s="34">
+        <v>4</v>
+      </c>
+      <c r="H20" s="34">
+        <v>4</v>
+      </c>
+      <c r="I20" s="34">
+        <v>4</v>
+      </c>
+      <c r="J20" s="34">
+        <v>3</v>
+      </c>
+      <c r="K20" s="34">
+        <v>4</v>
+      </c>
+      <c r="L20" s="34">
+        <v>3</v>
+      </c>
+      <c r="M20" s="34">
         <v>4</v>
       </c>
       <c r="N20" s="4">
@@ -2731,44 +2807,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="1">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1">
-        <v>3</v>
-      </c>
-      <c r="H21" s="1">
-        <v>4</v>
-      </c>
-      <c r="I21" s="1">
-        <v>4</v>
-      </c>
-      <c r="J21" s="1">
-        <v>3</v>
-      </c>
-      <c r="K21" s="1">
-        <v>4</v>
-      </c>
-      <c r="L21" s="1">
-        <v>4</v>
-      </c>
-      <c r="M21" s="1">
+      <c r="C21" s="33">
+        <v>4</v>
+      </c>
+      <c r="D21" s="34">
+        <v>4</v>
+      </c>
+      <c r="E21" s="34">
+        <v>4</v>
+      </c>
+      <c r="F21" s="34">
+        <v>4</v>
+      </c>
+      <c r="G21" s="34">
+        <v>3</v>
+      </c>
+      <c r="H21" s="34">
+        <v>4</v>
+      </c>
+      <c r="I21" s="34">
+        <v>4</v>
+      </c>
+      <c r="J21" s="34">
+        <v>3</v>
+      </c>
+      <c r="K21" s="34">
+        <v>4</v>
+      </c>
+      <c r="L21" s="34">
+        <v>4</v>
+      </c>
+      <c r="M21" s="34">
         <v>3</v>
       </c>
       <c r="N21" s="4">
@@ -2779,44 +2855,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="1">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1">
-        <v>4</v>
-      </c>
-      <c r="H22" s="1">
-        <v>3</v>
-      </c>
-      <c r="I22" s="1">
-        <v>4</v>
-      </c>
-      <c r="J22" s="1">
-        <v>3</v>
-      </c>
-      <c r="K22" s="1">
-        <v>4</v>
-      </c>
-      <c r="L22" s="1">
-        <v>4</v>
-      </c>
-      <c r="M22" s="1">
+      <c r="C22" s="33">
+        <v>4</v>
+      </c>
+      <c r="D22" s="34">
+        <v>4</v>
+      </c>
+      <c r="E22" s="34">
+        <v>4</v>
+      </c>
+      <c r="F22" s="34">
+        <v>3</v>
+      </c>
+      <c r="G22" s="34">
+        <v>4</v>
+      </c>
+      <c r="H22" s="34">
+        <v>3</v>
+      </c>
+      <c r="I22" s="34">
+        <v>4</v>
+      </c>
+      <c r="J22" s="34">
+        <v>3</v>
+      </c>
+      <c r="K22" s="34">
+        <v>4</v>
+      </c>
+      <c r="L22" s="34">
+        <v>4</v>
+      </c>
+      <c r="M22" s="34">
         <v>4</v>
       </c>
       <c r="N22" s="4">
@@ -2827,44 +2903,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="1">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1">
-        <v>4</v>
-      </c>
-      <c r="H23" s="1">
-        <v>3</v>
-      </c>
-      <c r="I23" s="1">
-        <v>4</v>
-      </c>
-      <c r="J23" s="1">
-        <v>3</v>
-      </c>
-      <c r="K23" s="1">
-        <v>4</v>
-      </c>
-      <c r="L23" s="1">
-        <v>4</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="C23" s="33">
+        <v>4</v>
+      </c>
+      <c r="D23" s="34">
+        <v>4</v>
+      </c>
+      <c r="E23" s="34">
+        <v>4</v>
+      </c>
+      <c r="F23" s="34">
+        <v>3</v>
+      </c>
+      <c r="G23" s="34">
+        <v>4</v>
+      </c>
+      <c r="H23" s="34">
+        <v>3</v>
+      </c>
+      <c r="I23" s="34">
+        <v>4</v>
+      </c>
+      <c r="J23" s="34">
+        <v>3</v>
+      </c>
+      <c r="K23" s="34">
+        <v>4</v>
+      </c>
+      <c r="L23" s="34">
+        <v>4</v>
+      </c>
+      <c r="M23" s="34">
         <v>4</v>
       </c>
       <c r="N23" s="4">
@@ -2875,44 +2951,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="3">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="C24" s="33">
+        <v>4</v>
+      </c>
+      <c r="D24" s="34">
+        <v>4</v>
+      </c>
+      <c r="E24" s="34">
+        <v>3</v>
+      </c>
+      <c r="F24" s="34">
+        <v>3</v>
+      </c>
+      <c r="G24" s="34">
+        <v>4</v>
+      </c>
+      <c r="H24" s="34">
+        <v>3</v>
+      </c>
+      <c r="I24" s="34">
+        <v>3</v>
+      </c>
+      <c r="J24" s="34">
+        <v>4</v>
+      </c>
+      <c r="K24" s="34">
+        <v>4</v>
+      </c>
+      <c r="L24" s="34">
+        <v>3</v>
+      </c>
+      <c r="M24" s="34">
         <v>4</v>
       </c>
       <c r="N24" s="4">
@@ -2923,44 +2999,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="3">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
-      <c r="E25" s="3">
-        <v>4</v>
-      </c>
-      <c r="F25" s="3">
-        <v>3</v>
-      </c>
-      <c r="G25" s="3">
-        <v>3</v>
-      </c>
-      <c r="H25" s="3">
-        <v>3</v>
-      </c>
-      <c r="I25" s="3">
-        <v>4</v>
-      </c>
-      <c r="J25" s="3">
-        <v>3</v>
-      </c>
-      <c r="K25" s="3">
-        <v>4</v>
-      </c>
-      <c r="L25" s="3">
-        <v>3</v>
-      </c>
-      <c r="M25" s="3">
+      <c r="C25" s="33">
+        <v>4</v>
+      </c>
+      <c r="D25" s="34">
+        <v>4</v>
+      </c>
+      <c r="E25" s="34">
+        <v>4</v>
+      </c>
+      <c r="F25" s="34">
+        <v>3</v>
+      </c>
+      <c r="G25" s="34">
+        <v>3</v>
+      </c>
+      <c r="H25" s="34">
+        <v>3</v>
+      </c>
+      <c r="I25" s="34">
+        <v>4</v>
+      </c>
+      <c r="J25" s="34">
+        <v>3</v>
+      </c>
+      <c r="K25" s="34">
+        <v>4</v>
+      </c>
+      <c r="L25" s="34">
+        <v>3</v>
+      </c>
+      <c r="M25" s="34">
         <v>4</v>
       </c>
       <c r="N25" s="4">
@@ -2971,44 +3047,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="1">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1">
-        <v>4</v>
-      </c>
-      <c r="G26" s="1">
-        <v>4</v>
-      </c>
-      <c r="H26" s="1">
-        <v>3</v>
-      </c>
-      <c r="I26" s="1">
-        <v>4</v>
-      </c>
-      <c r="J26" s="1">
-        <v>4</v>
-      </c>
-      <c r="K26" s="1">
-        <v>3</v>
-      </c>
-      <c r="L26" s="1">
-        <v>4</v>
-      </c>
-      <c r="M26" s="1">
+      <c r="C26" s="33">
+        <v>4</v>
+      </c>
+      <c r="D26" s="34">
+        <v>4</v>
+      </c>
+      <c r="E26" s="34">
+        <v>3</v>
+      </c>
+      <c r="F26" s="34">
+        <v>4</v>
+      </c>
+      <c r="G26" s="34">
+        <v>4</v>
+      </c>
+      <c r="H26" s="34">
+        <v>3</v>
+      </c>
+      <c r="I26" s="34">
+        <v>4</v>
+      </c>
+      <c r="J26" s="34">
+        <v>4</v>
+      </c>
+      <c r="K26" s="34">
+        <v>3</v>
+      </c>
+      <c r="L26" s="34">
+        <v>4</v>
+      </c>
+      <c r="M26" s="34">
         <v>4</v>
       </c>
       <c r="N26" s="4">
@@ -3019,44 +3095,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="1">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1">
-        <v>4</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3</v>
-      </c>
-      <c r="G27" s="1">
-        <v>4</v>
-      </c>
-      <c r="H27" s="1">
-        <v>4</v>
-      </c>
-      <c r="I27" s="1">
-        <v>3</v>
-      </c>
-      <c r="J27" s="1">
-        <v>4</v>
-      </c>
-      <c r="K27" s="1">
-        <v>4</v>
-      </c>
-      <c r="L27" s="1">
-        <v>3</v>
-      </c>
-      <c r="M27" s="1">
+      <c r="C27" s="33">
+        <v>4</v>
+      </c>
+      <c r="D27" s="34">
+        <v>4</v>
+      </c>
+      <c r="E27" s="34">
+        <v>4</v>
+      </c>
+      <c r="F27" s="34">
+        <v>3</v>
+      </c>
+      <c r="G27" s="34">
+        <v>4</v>
+      </c>
+      <c r="H27" s="34">
+        <v>4</v>
+      </c>
+      <c r="I27" s="34">
+        <v>3</v>
+      </c>
+      <c r="J27" s="34">
+        <v>4</v>
+      </c>
+      <c r="K27" s="34">
+        <v>4</v>
+      </c>
+      <c r="L27" s="34">
+        <v>3</v>
+      </c>
+      <c r="M27" s="34">
         <v>4</v>
       </c>
       <c r="N27" s="4">
@@ -3067,44 +3143,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="1">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3</v>
-      </c>
-      <c r="G28" s="1">
-        <v>4</v>
-      </c>
-      <c r="H28" s="1">
-        <v>4</v>
-      </c>
-      <c r="I28" s="1">
-        <v>4</v>
-      </c>
-      <c r="J28" s="1">
-        <v>4</v>
-      </c>
-      <c r="K28" s="1">
-        <v>3</v>
-      </c>
-      <c r="L28" s="1">
-        <v>4</v>
-      </c>
-      <c r="M28" s="1">
+      <c r="C28" s="33">
+        <v>4</v>
+      </c>
+      <c r="D28" s="34">
+        <v>3</v>
+      </c>
+      <c r="E28" s="34">
+        <v>4</v>
+      </c>
+      <c r="F28" s="34">
+        <v>3</v>
+      </c>
+      <c r="G28" s="34">
+        <v>4</v>
+      </c>
+      <c r="H28" s="34">
+        <v>4</v>
+      </c>
+      <c r="I28" s="34">
+        <v>4</v>
+      </c>
+      <c r="J28" s="34">
+        <v>4</v>
+      </c>
+      <c r="K28" s="34">
+        <v>3</v>
+      </c>
+      <c r="L28" s="34">
+        <v>4</v>
+      </c>
+      <c r="M28" s="34">
         <v>3</v>
       </c>
       <c r="N28" s="4">
@@ -3268,7 +3344,7 @@
         <v>95.454545454545453</v>
       </c>
       <c r="J37" s="9" t="str">
-        <f t="shared" ref="J36:J48" si="4">IF(AND(I37&gt;0,I37&lt;=20),"STL",IF(AND(I37&gt;20,I37&lt;=40),"TL",IF(AND(I37&gt;40,I37&lt;=60),"C",IF(AND(I37&gt;60,I37&lt;=80),"L",IF(AND(I37&gt;80,I37&lt;=100),"SL","")))))</f>
+        <f t="shared" ref="J37:J48" si="4">IF(AND(I37&gt;0,I37&lt;=20),"STL",IF(AND(I37&gt;20,I37&lt;=40),"TL",IF(AND(I37&gt;40,I37&lt;=60),"C",IF(AND(I37&gt;60,I37&lt;=80),"L",IF(AND(I37&gt;80,I37&lt;=100),"SL","")))))</f>
         <v>SL</v>
       </c>
     </row>
@@ -3660,35 +3736,35 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="23">
+      <c r="C50" s="26"/>
+      <c r="D50" s="35">
         <f>AVERAGE(D36:D49,I36:I48)</f>
         <v>92.760942760942754</v>
       </c>
-      <c r="E50" s="23" t="str">
+      <c r="E50" s="29" t="str">
         <f>IF(AND(D50&gt;0,D50&lt;=20),"STL",IF(AND(D50&gt;20,D50&lt;=40),"TL",IF(AND(D50&gt;40,D50&lt;=60),"C",IF(AND(D50&gt;60,D50&lt;=80),"L",IF(AND(D50&gt;80,D50&lt;=100),"SL","")))))</f>
         <v>SL</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="18"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3708,7 +3784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307979F6-DA14-4878-9500-8C5DEA3D5059}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -3735,46 +3811,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="14" t="s">
         <v>31</v>
       </c>
       <c r="O1" s="2"/>
@@ -3785,46 +3861,46 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="28">
-        <v>4</v>
-      </c>
-      <c r="D2" s="28">
-        <v>4</v>
-      </c>
-      <c r="E2" s="28">
-        <v>3</v>
-      </c>
-      <c r="F2" s="28">
-        <v>4</v>
-      </c>
-      <c r="G2" s="28">
-        <v>3</v>
-      </c>
-      <c r="H2" s="28">
-        <v>4</v>
-      </c>
-      <c r="I2" s="28">
-        <v>4</v>
-      </c>
-      <c r="J2" s="28">
-        <v>4</v>
-      </c>
-      <c r="K2" s="28">
-        <v>4</v>
-      </c>
-      <c r="L2" s="28">
-        <v>4</v>
-      </c>
-      <c r="M2" s="28">
-        <v>3</v>
-      </c>
-      <c r="N2" s="29">
+      <c r="B2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="16">
+        <v>4</v>
+      </c>
+      <c r="D2" s="16">
+        <v>4</v>
+      </c>
+      <c r="E2" s="16">
+        <v>3</v>
+      </c>
+      <c r="F2" s="16">
+        <v>4</v>
+      </c>
+      <c r="G2" s="16">
+        <v>3</v>
+      </c>
+      <c r="H2" s="16">
+        <v>4</v>
+      </c>
+      <c r="I2" s="16">
+        <v>4</v>
+      </c>
+      <c r="J2" s="16">
+        <v>4</v>
+      </c>
+      <c r="K2" s="16">
+        <v>4</v>
+      </c>
+      <c r="L2" s="16">
+        <v>4</v>
+      </c>
+      <c r="M2" s="16">
+        <v>3</v>
+      </c>
+      <c r="N2" s="17">
         <f>SUM(C2:M2)</f>
         <v>41</v>
       </c>
@@ -3836,46 +3912,46 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="28">
-        <v>4</v>
-      </c>
-      <c r="D3" s="28">
-        <v>3</v>
-      </c>
-      <c r="E3" s="28">
-        <v>4</v>
-      </c>
-      <c r="F3" s="28">
-        <v>4</v>
-      </c>
-      <c r="G3" s="28">
-        <v>3</v>
-      </c>
-      <c r="H3" s="28">
-        <v>3</v>
-      </c>
-      <c r="I3" s="28">
-        <v>3</v>
-      </c>
-      <c r="J3" s="28">
-        <v>4</v>
-      </c>
-      <c r="K3" s="28">
-        <v>4</v>
-      </c>
-      <c r="L3" s="28">
-        <v>3</v>
-      </c>
-      <c r="M3" s="28">
-        <v>3</v>
-      </c>
-      <c r="N3" s="29">
+      <c r="C3" s="16">
+        <v>4</v>
+      </c>
+      <c r="D3" s="16">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16">
+        <v>4</v>
+      </c>
+      <c r="F3" s="16">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16">
+        <v>3</v>
+      </c>
+      <c r="H3" s="16">
+        <v>3</v>
+      </c>
+      <c r="I3" s="16">
+        <v>3</v>
+      </c>
+      <c r="J3" s="16">
+        <v>4</v>
+      </c>
+      <c r="K3" s="16">
+        <v>4</v>
+      </c>
+      <c r="L3" s="16">
+        <v>3</v>
+      </c>
+      <c r="M3" s="16">
+        <v>3</v>
+      </c>
+      <c r="N3" s="17">
         <f t="shared" ref="N3:N28" si="0">SUM(C3:M3)</f>
         <v>38</v>
       </c>
@@ -3887,46 +3963,46 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="28">
-        <v>4</v>
-      </c>
-      <c r="D4" s="28">
-        <v>4</v>
-      </c>
-      <c r="E4" s="28">
-        <v>4</v>
-      </c>
-      <c r="F4" s="28">
-        <v>3</v>
-      </c>
-      <c r="G4" s="28">
-        <v>4</v>
-      </c>
-      <c r="H4" s="28">
-        <v>4</v>
-      </c>
-      <c r="I4" s="28">
-        <v>4</v>
-      </c>
-      <c r="J4" s="28">
-        <v>4</v>
-      </c>
-      <c r="K4" s="28">
-        <v>3</v>
-      </c>
-      <c r="L4" s="28">
-        <v>4</v>
-      </c>
-      <c r="M4" s="28">
-        <v>4</v>
-      </c>
-      <c r="N4" s="29">
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16">
+        <v>4</v>
+      </c>
+      <c r="D4" s="16">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16">
+        <v>4</v>
+      </c>
+      <c r="F4" s="16">
+        <v>3</v>
+      </c>
+      <c r="G4" s="16">
+        <v>4</v>
+      </c>
+      <c r="H4" s="16">
+        <v>4</v>
+      </c>
+      <c r="I4" s="16">
+        <v>4</v>
+      </c>
+      <c r="J4" s="16">
+        <v>4</v>
+      </c>
+      <c r="K4" s="16">
+        <v>3</v>
+      </c>
+      <c r="L4" s="16">
+        <v>4</v>
+      </c>
+      <c r="M4" s="16">
+        <v>4</v>
+      </c>
+      <c r="N4" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -3938,46 +4014,46 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="28">
-        <v>4</v>
-      </c>
-      <c r="D5" s="28">
-        <v>4</v>
-      </c>
-      <c r="E5" s="28">
-        <v>4</v>
-      </c>
-      <c r="F5" s="28">
-        <v>3</v>
-      </c>
-      <c r="G5" s="28">
-        <v>4</v>
-      </c>
-      <c r="H5" s="28">
-        <v>3</v>
-      </c>
-      <c r="I5" s="28">
-        <v>4</v>
-      </c>
-      <c r="J5" s="28">
-        <v>4</v>
-      </c>
-      <c r="K5" s="28">
-        <v>4</v>
-      </c>
-      <c r="L5" s="28">
-        <v>4</v>
-      </c>
-      <c r="M5" s="28">
-        <v>3</v>
-      </c>
-      <c r="N5" s="29">
+      <c r="B5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16">
+        <v>4</v>
+      </c>
+      <c r="D5" s="16">
+        <v>4</v>
+      </c>
+      <c r="E5" s="16">
+        <v>4</v>
+      </c>
+      <c r="F5" s="16">
+        <v>3</v>
+      </c>
+      <c r="G5" s="16">
+        <v>4</v>
+      </c>
+      <c r="H5" s="16">
+        <v>3</v>
+      </c>
+      <c r="I5" s="16">
+        <v>4</v>
+      </c>
+      <c r="J5" s="16">
+        <v>4</v>
+      </c>
+      <c r="K5" s="16">
+        <v>4</v>
+      </c>
+      <c r="L5" s="16">
+        <v>4</v>
+      </c>
+      <c r="M5" s="16">
+        <v>3</v>
+      </c>
+      <c r="N5" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -3989,46 +4065,46 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="28">
-        <v>4</v>
-      </c>
-      <c r="D6" s="28">
-        <v>3</v>
-      </c>
-      <c r="E6" s="28">
-        <v>4</v>
-      </c>
-      <c r="F6" s="28">
-        <v>3</v>
-      </c>
-      <c r="G6" s="28">
-        <v>4</v>
-      </c>
-      <c r="H6" s="28">
-        <v>4</v>
-      </c>
-      <c r="I6" s="28">
-        <v>4</v>
-      </c>
-      <c r="J6" s="28">
-        <v>4</v>
-      </c>
-      <c r="K6" s="28">
-        <v>4</v>
-      </c>
-      <c r="L6" s="28">
-        <v>4</v>
-      </c>
-      <c r="M6" s="28">
-        <v>3</v>
-      </c>
-      <c r="N6" s="29">
+      <c r="B6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16">
+        <v>3</v>
+      </c>
+      <c r="G6" s="16">
+        <v>4</v>
+      </c>
+      <c r="H6" s="16">
+        <v>4</v>
+      </c>
+      <c r="I6" s="16">
+        <v>4</v>
+      </c>
+      <c r="J6" s="16">
+        <v>4</v>
+      </c>
+      <c r="K6" s="16">
+        <v>4</v>
+      </c>
+      <c r="L6" s="16">
+        <v>4</v>
+      </c>
+      <c r="M6" s="16">
+        <v>3</v>
+      </c>
+      <c r="N6" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -4040,46 +4116,46 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="28">
-        <v>4</v>
-      </c>
-      <c r="D7" s="28">
-        <v>4</v>
-      </c>
-      <c r="E7" s="28">
-        <v>4</v>
-      </c>
-      <c r="F7" s="28">
-        <v>4</v>
-      </c>
-      <c r="G7" s="28">
-        <v>4</v>
-      </c>
-      <c r="H7" s="28">
-        <v>4</v>
-      </c>
-      <c r="I7" s="28">
-        <v>4</v>
-      </c>
-      <c r="J7" s="28">
-        <v>4</v>
-      </c>
-      <c r="K7" s="28">
-        <v>4</v>
-      </c>
-      <c r="L7" s="28">
-        <v>4</v>
-      </c>
-      <c r="M7" s="28">
-        <v>4</v>
-      </c>
-      <c r="N7" s="29">
+      <c r="C7" s="16">
+        <v>4</v>
+      </c>
+      <c r="D7" s="16">
+        <v>4</v>
+      </c>
+      <c r="E7" s="16">
+        <v>4</v>
+      </c>
+      <c r="F7" s="16">
+        <v>4</v>
+      </c>
+      <c r="G7" s="16">
+        <v>4</v>
+      </c>
+      <c r="H7" s="16">
+        <v>4</v>
+      </c>
+      <c r="I7" s="16">
+        <v>4</v>
+      </c>
+      <c r="J7" s="16">
+        <v>4</v>
+      </c>
+      <c r="K7" s="16">
+        <v>4</v>
+      </c>
+      <c r="L7" s="16">
+        <v>4</v>
+      </c>
+      <c r="M7" s="16">
+        <v>4</v>
+      </c>
+      <c r="N7" s="17">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -4091,46 +4167,46 @@
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="28">
-        <v>4</v>
-      </c>
-      <c r="D8" s="28">
-        <v>4</v>
-      </c>
-      <c r="E8" s="28">
-        <v>4</v>
-      </c>
-      <c r="F8" s="28">
-        <v>3</v>
-      </c>
-      <c r="G8" s="28">
-        <v>4</v>
-      </c>
-      <c r="H8" s="28">
-        <v>4</v>
-      </c>
-      <c r="I8" s="28">
-        <v>4</v>
-      </c>
-      <c r="J8" s="28">
-        <v>4</v>
-      </c>
-      <c r="K8" s="28">
-        <v>4</v>
-      </c>
-      <c r="L8" s="28">
-        <v>3</v>
-      </c>
-      <c r="M8" s="28">
-        <v>4</v>
-      </c>
-      <c r="N8" s="29">
+      <c r="C8" s="16">
+        <v>4</v>
+      </c>
+      <c r="D8" s="16">
+        <v>4</v>
+      </c>
+      <c r="E8" s="16">
+        <v>4</v>
+      </c>
+      <c r="F8" s="16">
+        <v>3</v>
+      </c>
+      <c r="G8" s="16">
+        <v>4</v>
+      </c>
+      <c r="H8" s="16">
+        <v>4</v>
+      </c>
+      <c r="I8" s="16">
+        <v>4</v>
+      </c>
+      <c r="J8" s="16">
+        <v>4</v>
+      </c>
+      <c r="K8" s="16">
+        <v>4</v>
+      </c>
+      <c r="L8" s="16">
+        <v>3</v>
+      </c>
+      <c r="M8" s="16">
+        <v>4</v>
+      </c>
+      <c r="N8" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -4142,46 +4218,46 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="28">
-        <v>4</v>
-      </c>
-      <c r="D9" s="28">
-        <v>3</v>
-      </c>
-      <c r="E9" s="28">
-        <v>4</v>
-      </c>
-      <c r="F9" s="28">
-        <v>4</v>
-      </c>
-      <c r="G9" s="28">
-        <v>4</v>
-      </c>
-      <c r="H9" s="28">
-        <v>4</v>
-      </c>
-      <c r="I9" s="28">
-        <v>4</v>
-      </c>
-      <c r="J9" s="28">
-        <v>4</v>
-      </c>
-      <c r="K9" s="28">
-        <v>4</v>
-      </c>
-      <c r="L9" s="28">
-        <v>3</v>
-      </c>
-      <c r="M9" s="28">
-        <v>4</v>
-      </c>
-      <c r="N9" s="29">
+      <c r="C9" s="16">
+        <v>4</v>
+      </c>
+      <c r="D9" s="16">
+        <v>3</v>
+      </c>
+      <c r="E9" s="16">
+        <v>4</v>
+      </c>
+      <c r="F9" s="16">
+        <v>4</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4</v>
+      </c>
+      <c r="H9" s="16">
+        <v>4</v>
+      </c>
+      <c r="I9" s="16">
+        <v>4</v>
+      </c>
+      <c r="J9" s="16">
+        <v>4</v>
+      </c>
+      <c r="K9" s="16">
+        <v>4</v>
+      </c>
+      <c r="L9" s="16">
+        <v>3</v>
+      </c>
+      <c r="M9" s="16">
+        <v>4</v>
+      </c>
+      <c r="N9" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -4193,46 +4269,46 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="28">
-        <v>4</v>
-      </c>
-      <c r="D10" s="28">
-        <v>3</v>
-      </c>
-      <c r="E10" s="28">
-        <v>3</v>
-      </c>
-      <c r="F10" s="28">
-        <v>4</v>
-      </c>
-      <c r="G10" s="28">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28">
-        <v>4</v>
-      </c>
-      <c r="I10" s="28">
-        <v>4</v>
-      </c>
-      <c r="J10" s="28">
-        <v>3</v>
-      </c>
-      <c r="K10" s="28">
-        <v>3</v>
-      </c>
-      <c r="L10" s="28">
-        <v>3</v>
-      </c>
-      <c r="M10" s="28">
-        <v>4</v>
-      </c>
-      <c r="N10" s="29">
+      <c r="B10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>4</v>
+      </c>
+      <c r="D10" s="16">
+        <v>3</v>
+      </c>
+      <c r="E10" s="16">
+        <v>3</v>
+      </c>
+      <c r="F10" s="16">
+        <v>4</v>
+      </c>
+      <c r="G10" s="16">
+        <v>4</v>
+      </c>
+      <c r="H10" s="16">
+        <v>4</v>
+      </c>
+      <c r="I10" s="16">
+        <v>4</v>
+      </c>
+      <c r="J10" s="16">
+        <v>3</v>
+      </c>
+      <c r="K10" s="16">
+        <v>3</v>
+      </c>
+      <c r="L10" s="16">
+        <v>3</v>
+      </c>
+      <c r="M10" s="16">
+        <v>4</v>
+      </c>
+      <c r="N10" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -4244,46 +4320,46 @@
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="28">
-        <v>4</v>
-      </c>
-      <c r="D11" s="28">
-        <v>4</v>
-      </c>
-      <c r="E11" s="28">
-        <v>4</v>
-      </c>
-      <c r="F11" s="28">
-        <v>3</v>
-      </c>
-      <c r="G11" s="28">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28">
-        <v>4</v>
-      </c>
-      <c r="I11" s="28">
-        <v>4</v>
-      </c>
-      <c r="J11" s="28">
-        <v>4</v>
-      </c>
-      <c r="K11" s="28">
-        <v>4</v>
-      </c>
-      <c r="L11" s="28">
-        <v>4</v>
-      </c>
-      <c r="M11" s="28">
-        <v>4</v>
-      </c>
-      <c r="N11" s="29">
+      <c r="C11" s="16">
+        <v>4</v>
+      </c>
+      <c r="D11" s="16">
+        <v>4</v>
+      </c>
+      <c r="E11" s="16">
+        <v>4</v>
+      </c>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
+      <c r="G11" s="16">
+        <v>4</v>
+      </c>
+      <c r="H11" s="16">
+        <v>4</v>
+      </c>
+      <c r="I11" s="16">
+        <v>4</v>
+      </c>
+      <c r="J11" s="16">
+        <v>4</v>
+      </c>
+      <c r="K11" s="16">
+        <v>4</v>
+      </c>
+      <c r="L11" s="16">
+        <v>4</v>
+      </c>
+      <c r="M11" s="16">
+        <v>4</v>
+      </c>
+      <c r="N11" s="17">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -4295,46 +4371,46 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="28">
-        <v>4</v>
-      </c>
-      <c r="D12" s="28">
-        <v>4</v>
-      </c>
-      <c r="E12" s="28">
-        <v>4</v>
-      </c>
-      <c r="F12" s="28">
-        <v>4</v>
-      </c>
-      <c r="G12" s="28">
-        <v>3</v>
-      </c>
-      <c r="H12" s="28">
-        <v>4</v>
-      </c>
-      <c r="I12" s="28">
-        <v>3</v>
-      </c>
-      <c r="J12" s="28">
-        <v>4</v>
-      </c>
-      <c r="K12" s="28">
-        <v>4</v>
-      </c>
-      <c r="L12" s="28">
-        <v>4</v>
-      </c>
-      <c r="M12" s="28">
-        <v>3</v>
-      </c>
-      <c r="N12" s="29">
+      <c r="B12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="16">
+        <v>4</v>
+      </c>
+      <c r="D12" s="16">
+        <v>4</v>
+      </c>
+      <c r="E12" s="16">
+        <v>4</v>
+      </c>
+      <c r="F12" s="16">
+        <v>4</v>
+      </c>
+      <c r="G12" s="16">
+        <v>3</v>
+      </c>
+      <c r="H12" s="16">
+        <v>4</v>
+      </c>
+      <c r="I12" s="16">
+        <v>3</v>
+      </c>
+      <c r="J12" s="16">
+        <v>4</v>
+      </c>
+      <c r="K12" s="16">
+        <v>4</v>
+      </c>
+      <c r="L12" s="16">
+        <v>4</v>
+      </c>
+      <c r="M12" s="16">
+        <v>3</v>
+      </c>
+      <c r="N12" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -4346,46 +4422,46 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="28">
-        <v>3</v>
-      </c>
-      <c r="D13" s="28">
-        <v>3</v>
-      </c>
-      <c r="E13" s="28">
-        <v>4</v>
-      </c>
-      <c r="F13" s="28">
-        <v>4</v>
-      </c>
-      <c r="G13" s="28">
-        <v>3</v>
-      </c>
-      <c r="H13" s="28">
-        <v>4</v>
-      </c>
-      <c r="I13" s="28">
-        <v>3</v>
-      </c>
-      <c r="J13" s="28">
-        <v>4</v>
-      </c>
-      <c r="K13" s="28">
-        <v>4</v>
-      </c>
-      <c r="L13" s="28">
-        <v>3</v>
-      </c>
-      <c r="M13" s="28">
-        <v>4</v>
-      </c>
-      <c r="N13" s="29">
+      <c r="B13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3</v>
+      </c>
+      <c r="D13" s="16">
+        <v>3</v>
+      </c>
+      <c r="E13" s="16">
+        <v>4</v>
+      </c>
+      <c r="F13" s="16">
+        <v>4</v>
+      </c>
+      <c r="G13" s="16">
+        <v>3</v>
+      </c>
+      <c r="H13" s="16">
+        <v>4</v>
+      </c>
+      <c r="I13" s="16">
+        <v>3</v>
+      </c>
+      <c r="J13" s="16">
+        <v>4</v>
+      </c>
+      <c r="K13" s="16">
+        <v>4</v>
+      </c>
+      <c r="L13" s="16">
+        <v>3</v>
+      </c>
+      <c r="M13" s="16">
+        <v>4</v>
+      </c>
+      <c r="N13" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -4397,46 +4473,46 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="28">
-        <v>4</v>
-      </c>
-      <c r="D14" s="28">
-        <v>4</v>
-      </c>
-      <c r="E14" s="28">
-        <v>3</v>
-      </c>
-      <c r="F14" s="28">
-        <v>3</v>
-      </c>
-      <c r="G14" s="28">
-        <v>4</v>
-      </c>
-      <c r="H14" s="28">
-        <v>4</v>
-      </c>
-      <c r="I14" s="28">
-        <v>4</v>
-      </c>
-      <c r="J14" s="28">
-        <v>4</v>
-      </c>
-      <c r="K14" s="28">
-        <v>4</v>
-      </c>
-      <c r="L14" s="28">
-        <v>3</v>
-      </c>
-      <c r="M14" s="28">
-        <v>3</v>
-      </c>
-      <c r="N14" s="29">
+      <c r="B14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16">
+        <v>4</v>
+      </c>
+      <c r="D14" s="16">
+        <v>4</v>
+      </c>
+      <c r="E14" s="16">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16">
+        <v>3</v>
+      </c>
+      <c r="G14" s="16">
+        <v>4</v>
+      </c>
+      <c r="H14" s="16">
+        <v>4</v>
+      </c>
+      <c r="I14" s="16">
+        <v>4</v>
+      </c>
+      <c r="J14" s="16">
+        <v>4</v>
+      </c>
+      <c r="K14" s="16">
+        <v>4</v>
+      </c>
+      <c r="L14" s="16">
+        <v>3</v>
+      </c>
+      <c r="M14" s="16">
+        <v>3</v>
+      </c>
+      <c r="N14" s="17">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -4448,46 +4524,46 @@
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="28">
-        <v>4</v>
-      </c>
-      <c r="D15" s="28">
-        <v>4</v>
-      </c>
-      <c r="E15" s="28">
-        <v>3</v>
-      </c>
-      <c r="F15" s="28">
-        <v>4</v>
-      </c>
-      <c r="G15" s="28">
-        <v>4</v>
-      </c>
-      <c r="H15" s="28">
-        <v>4</v>
-      </c>
-      <c r="I15" s="28">
-        <v>3</v>
-      </c>
-      <c r="J15" s="28">
-        <v>4</v>
-      </c>
-      <c r="K15" s="28">
-        <v>4</v>
-      </c>
-      <c r="L15" s="28">
-        <v>4</v>
-      </c>
-      <c r="M15" s="28">
-        <v>3</v>
-      </c>
-      <c r="N15" s="29">
+      <c r="B15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16">
+        <v>4</v>
+      </c>
+      <c r="D15" s="16">
+        <v>4</v>
+      </c>
+      <c r="E15" s="16">
+        <v>3</v>
+      </c>
+      <c r="F15" s="16">
+        <v>4</v>
+      </c>
+      <c r="G15" s="16">
+        <v>4</v>
+      </c>
+      <c r="H15" s="16">
+        <v>4</v>
+      </c>
+      <c r="I15" s="16">
+        <v>3</v>
+      </c>
+      <c r="J15" s="16">
+        <v>4</v>
+      </c>
+      <c r="K15" s="16">
+        <v>4</v>
+      </c>
+      <c r="L15" s="16">
+        <v>4</v>
+      </c>
+      <c r="M15" s="16">
+        <v>3</v>
+      </c>
+      <c r="N15" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -4499,46 +4575,46 @@
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="28">
-        <v>3</v>
-      </c>
-      <c r="D16" s="28">
-        <v>4</v>
-      </c>
-      <c r="E16" s="28">
-        <v>4</v>
-      </c>
-      <c r="F16" s="28">
-        <v>3</v>
-      </c>
-      <c r="G16" s="28">
-        <v>4</v>
-      </c>
-      <c r="H16" s="28">
-        <v>3</v>
-      </c>
-      <c r="I16" s="28">
-        <v>3</v>
-      </c>
-      <c r="J16" s="28">
-        <v>4</v>
-      </c>
-      <c r="K16" s="28">
-        <v>3</v>
-      </c>
-      <c r="L16" s="28">
-        <v>3</v>
-      </c>
-      <c r="M16" s="28">
-        <v>4</v>
-      </c>
-      <c r="N16" s="29">
+      <c r="C16" s="16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="16">
+        <v>4</v>
+      </c>
+      <c r="F16" s="16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="16">
+        <v>3</v>
+      </c>
+      <c r="I16" s="16">
+        <v>3</v>
+      </c>
+      <c r="J16" s="16">
+        <v>4</v>
+      </c>
+      <c r="K16" s="16">
+        <v>3</v>
+      </c>
+      <c r="L16" s="16">
+        <v>3</v>
+      </c>
+      <c r="M16" s="16">
+        <v>4</v>
+      </c>
+      <c r="N16" s="17">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -4550,46 +4626,46 @@
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="28">
-        <v>4</v>
-      </c>
-      <c r="D17" s="28">
-        <v>4</v>
-      </c>
-      <c r="E17" s="28">
-        <v>3</v>
-      </c>
-      <c r="F17" s="28">
-        <v>4</v>
-      </c>
-      <c r="G17" s="28">
-        <v>4</v>
-      </c>
-      <c r="H17" s="28">
-        <v>4</v>
-      </c>
-      <c r="I17" s="28">
-        <v>4</v>
-      </c>
-      <c r="J17" s="28">
-        <v>4</v>
-      </c>
-      <c r="K17" s="28">
-        <v>4</v>
-      </c>
-      <c r="L17" s="28">
-        <v>4</v>
-      </c>
-      <c r="M17" s="28">
-        <v>3</v>
-      </c>
-      <c r="N17" s="29">
+      <c r="C17" s="16">
+        <v>4</v>
+      </c>
+      <c r="D17" s="16">
+        <v>4</v>
+      </c>
+      <c r="E17" s="16">
+        <v>3</v>
+      </c>
+      <c r="F17" s="16">
+        <v>4</v>
+      </c>
+      <c r="G17" s="16">
+        <v>4</v>
+      </c>
+      <c r="H17" s="16">
+        <v>4</v>
+      </c>
+      <c r="I17" s="16">
+        <v>4</v>
+      </c>
+      <c r="J17" s="16">
+        <v>4</v>
+      </c>
+      <c r="K17" s="16">
+        <v>4</v>
+      </c>
+      <c r="L17" s="16">
+        <v>4</v>
+      </c>
+      <c r="M17" s="16">
+        <v>3</v>
+      </c>
+      <c r="N17" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -4601,46 +4677,46 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="28">
-        <v>4</v>
-      </c>
-      <c r="D18" s="28">
-        <v>4</v>
-      </c>
-      <c r="E18" s="28">
-        <v>4</v>
-      </c>
-      <c r="F18" s="28">
-        <v>4</v>
-      </c>
-      <c r="G18" s="28">
-        <v>3</v>
-      </c>
-      <c r="H18" s="28">
-        <v>4</v>
-      </c>
-      <c r="I18" s="28">
-        <v>4</v>
-      </c>
-      <c r="J18" s="28">
-        <v>4</v>
-      </c>
-      <c r="K18" s="28">
-        <v>3</v>
-      </c>
-      <c r="L18" s="28">
-        <v>4</v>
-      </c>
-      <c r="M18" s="28">
-        <v>4</v>
-      </c>
-      <c r="N18" s="29">
+      <c r="C18" s="16">
+        <v>4</v>
+      </c>
+      <c r="D18" s="16">
+        <v>4</v>
+      </c>
+      <c r="E18" s="16">
+        <v>4</v>
+      </c>
+      <c r="F18" s="16">
+        <v>4</v>
+      </c>
+      <c r="G18" s="16">
+        <v>3</v>
+      </c>
+      <c r="H18" s="16">
+        <v>4</v>
+      </c>
+      <c r="I18" s="16">
+        <v>4</v>
+      </c>
+      <c r="J18" s="16">
+        <v>4</v>
+      </c>
+      <c r="K18" s="16">
+        <v>3</v>
+      </c>
+      <c r="L18" s="16">
+        <v>4</v>
+      </c>
+      <c r="M18" s="16">
+        <v>4</v>
+      </c>
+      <c r="N18" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -4652,46 +4728,46 @@
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="26">
-        <v>4</v>
-      </c>
-      <c r="D19" s="26">
-        <v>4</v>
-      </c>
-      <c r="E19" s="26">
-        <v>4</v>
-      </c>
-      <c r="F19" s="26">
-        <v>4</v>
-      </c>
-      <c r="G19" s="26">
-        <v>4</v>
-      </c>
-      <c r="H19" s="26">
-        <v>3</v>
-      </c>
-      <c r="I19" s="26">
-        <v>3</v>
-      </c>
-      <c r="J19" s="26">
-        <v>4</v>
-      </c>
-      <c r="K19" s="26">
-        <v>4</v>
-      </c>
-      <c r="L19" s="26">
-        <v>3</v>
-      </c>
-      <c r="M19" s="26">
-        <v>4</v>
-      </c>
-      <c r="N19" s="29">
+      <c r="C19" s="14">
+        <v>4</v>
+      </c>
+      <c r="D19" s="14">
+        <v>4</v>
+      </c>
+      <c r="E19" s="14">
+        <v>4</v>
+      </c>
+      <c r="F19" s="14">
+        <v>4</v>
+      </c>
+      <c r="G19" s="14">
+        <v>4</v>
+      </c>
+      <c r="H19" s="14">
+        <v>3</v>
+      </c>
+      <c r="I19" s="14">
+        <v>3</v>
+      </c>
+      <c r="J19" s="14">
+        <v>4</v>
+      </c>
+      <c r="K19" s="14">
+        <v>4</v>
+      </c>
+      <c r="L19" s="14">
+        <v>3</v>
+      </c>
+      <c r="M19" s="14">
+        <v>4</v>
+      </c>
+      <c r="N19" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -4703,46 +4779,46 @@
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="26">
-        <v>4</v>
-      </c>
-      <c r="D20" s="26">
-        <v>4</v>
-      </c>
-      <c r="E20" s="26">
-        <v>4</v>
-      </c>
-      <c r="F20" s="26">
-        <v>4</v>
-      </c>
-      <c r="G20" s="26">
-        <v>4</v>
-      </c>
-      <c r="H20" s="26">
-        <v>4</v>
-      </c>
-      <c r="I20" s="26">
-        <v>4</v>
-      </c>
-      <c r="J20" s="26">
-        <v>3</v>
-      </c>
-      <c r="K20" s="26">
-        <v>4</v>
-      </c>
-      <c r="L20" s="26">
-        <v>3</v>
-      </c>
-      <c r="M20" s="26">
-        <v>4</v>
-      </c>
-      <c r="N20" s="29">
+      <c r="C20" s="14">
+        <v>4</v>
+      </c>
+      <c r="D20" s="14">
+        <v>4</v>
+      </c>
+      <c r="E20" s="14">
+        <v>4</v>
+      </c>
+      <c r="F20" s="14">
+        <v>4</v>
+      </c>
+      <c r="G20" s="14">
+        <v>4</v>
+      </c>
+      <c r="H20" s="14">
+        <v>4</v>
+      </c>
+      <c r="I20" s="14">
+        <v>4</v>
+      </c>
+      <c r="J20" s="14">
+        <v>3</v>
+      </c>
+      <c r="K20" s="14">
+        <v>4</v>
+      </c>
+      <c r="L20" s="14">
+        <v>3</v>
+      </c>
+      <c r="M20" s="14">
+        <v>4</v>
+      </c>
+      <c r="N20" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -4754,46 +4830,46 @@
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="26">
-        <v>4</v>
-      </c>
-      <c r="D21" s="26">
-        <v>4</v>
-      </c>
-      <c r="E21" s="26">
-        <v>4</v>
-      </c>
-      <c r="F21" s="26">
-        <v>4</v>
-      </c>
-      <c r="G21" s="26">
-        <v>3</v>
-      </c>
-      <c r="H21" s="26">
-        <v>4</v>
-      </c>
-      <c r="I21" s="26">
-        <v>4</v>
-      </c>
-      <c r="J21" s="26">
-        <v>3</v>
-      </c>
-      <c r="K21" s="26">
-        <v>4</v>
-      </c>
-      <c r="L21" s="26">
-        <v>4</v>
-      </c>
-      <c r="M21" s="26">
-        <v>3</v>
-      </c>
-      <c r="N21" s="29">
+      <c r="C21" s="14">
+        <v>4</v>
+      </c>
+      <c r="D21" s="14">
+        <v>4</v>
+      </c>
+      <c r="E21" s="14">
+        <v>4</v>
+      </c>
+      <c r="F21" s="14">
+        <v>4</v>
+      </c>
+      <c r="G21" s="14">
+        <v>3</v>
+      </c>
+      <c r="H21" s="14">
+        <v>4</v>
+      </c>
+      <c r="I21" s="14">
+        <v>4</v>
+      </c>
+      <c r="J21" s="14">
+        <v>3</v>
+      </c>
+      <c r="K21" s="14">
+        <v>4</v>
+      </c>
+      <c r="L21" s="14">
+        <v>4</v>
+      </c>
+      <c r="M21" s="14">
+        <v>3</v>
+      </c>
+      <c r="N21" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -4805,46 +4881,46 @@
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="26">
-        <v>4</v>
-      </c>
-      <c r="D22" s="26">
-        <v>4</v>
-      </c>
-      <c r="E22" s="26">
-        <v>4</v>
-      </c>
-      <c r="F22" s="26">
-        <v>3</v>
-      </c>
-      <c r="G22" s="26">
-        <v>4</v>
-      </c>
-      <c r="H22" s="26">
-        <v>3</v>
-      </c>
-      <c r="I22" s="26">
-        <v>4</v>
-      </c>
-      <c r="J22" s="26">
-        <v>3</v>
-      </c>
-      <c r="K22" s="26">
-        <v>4</v>
-      </c>
-      <c r="L22" s="26">
-        <v>4</v>
-      </c>
-      <c r="M22" s="26">
-        <v>4</v>
-      </c>
-      <c r="N22" s="29">
+      <c r="C22" s="14">
+        <v>4</v>
+      </c>
+      <c r="D22" s="14">
+        <v>4</v>
+      </c>
+      <c r="E22" s="14">
+        <v>4</v>
+      </c>
+      <c r="F22" s="14">
+        <v>3</v>
+      </c>
+      <c r="G22" s="14">
+        <v>4</v>
+      </c>
+      <c r="H22" s="14">
+        <v>3</v>
+      </c>
+      <c r="I22" s="14">
+        <v>4</v>
+      </c>
+      <c r="J22" s="14">
+        <v>3</v>
+      </c>
+      <c r="K22" s="14">
+        <v>4</v>
+      </c>
+      <c r="L22" s="14">
+        <v>4</v>
+      </c>
+      <c r="M22" s="14">
+        <v>4</v>
+      </c>
+      <c r="N22" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -4856,46 +4932,46 @@
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="26">
-        <v>4</v>
-      </c>
-      <c r="D23" s="26">
-        <v>4</v>
-      </c>
-      <c r="E23" s="26">
-        <v>4</v>
-      </c>
-      <c r="F23" s="26">
-        <v>3</v>
-      </c>
-      <c r="G23" s="26">
-        <v>4</v>
-      </c>
-      <c r="H23" s="26">
-        <v>3</v>
-      </c>
-      <c r="I23" s="26">
-        <v>4</v>
-      </c>
-      <c r="J23" s="26">
-        <v>3</v>
-      </c>
-      <c r="K23" s="26">
-        <v>4</v>
-      </c>
-      <c r="L23" s="26">
-        <v>4</v>
-      </c>
-      <c r="M23" s="26">
-        <v>4</v>
-      </c>
-      <c r="N23" s="29">
+      <c r="C23" s="14">
+        <v>4</v>
+      </c>
+      <c r="D23" s="14">
+        <v>4</v>
+      </c>
+      <c r="E23" s="14">
+        <v>4</v>
+      </c>
+      <c r="F23" s="14">
+        <v>3</v>
+      </c>
+      <c r="G23" s="14">
+        <v>4</v>
+      </c>
+      <c r="H23" s="14">
+        <v>3</v>
+      </c>
+      <c r="I23" s="14">
+        <v>4</v>
+      </c>
+      <c r="J23" s="14">
+        <v>3</v>
+      </c>
+      <c r="K23" s="14">
+        <v>4</v>
+      </c>
+      <c r="L23" s="14">
+        <v>4</v>
+      </c>
+      <c r="M23" s="14">
+        <v>4</v>
+      </c>
+      <c r="N23" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -4907,46 +4983,46 @@
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="28">
-        <v>4</v>
-      </c>
-      <c r="D24" s="28">
-        <v>4</v>
-      </c>
-      <c r="E24" s="28">
-        <v>3</v>
-      </c>
-      <c r="F24" s="28">
-        <v>3</v>
-      </c>
-      <c r="G24" s="28">
-        <v>4</v>
-      </c>
-      <c r="H24" s="28">
-        <v>3</v>
-      </c>
-      <c r="I24" s="28">
-        <v>3</v>
-      </c>
-      <c r="J24" s="28">
-        <v>4</v>
-      </c>
-      <c r="K24" s="28">
-        <v>4</v>
-      </c>
-      <c r="L24" s="28">
-        <v>3</v>
-      </c>
-      <c r="M24" s="28">
-        <v>4</v>
-      </c>
-      <c r="N24" s="29">
+      <c r="B24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="16">
+        <v>4</v>
+      </c>
+      <c r="D24" s="16">
+        <v>4</v>
+      </c>
+      <c r="E24" s="16">
+        <v>3</v>
+      </c>
+      <c r="F24" s="16">
+        <v>3</v>
+      </c>
+      <c r="G24" s="16">
+        <v>4</v>
+      </c>
+      <c r="H24" s="16">
+        <v>3</v>
+      </c>
+      <c r="I24" s="16">
+        <v>3</v>
+      </c>
+      <c r="J24" s="16">
+        <v>4</v>
+      </c>
+      <c r="K24" s="16">
+        <v>4</v>
+      </c>
+      <c r="L24" s="16">
+        <v>3</v>
+      </c>
+      <c r="M24" s="16">
+        <v>4</v>
+      </c>
+      <c r="N24" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -4958,46 +5034,46 @@
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="28">
-        <v>4</v>
-      </c>
-      <c r="D25" s="28">
-        <v>4</v>
-      </c>
-      <c r="E25" s="28">
-        <v>4</v>
-      </c>
-      <c r="F25" s="28">
-        <v>3</v>
-      </c>
-      <c r="G25" s="28">
-        <v>3</v>
-      </c>
-      <c r="H25" s="28">
-        <v>3</v>
-      </c>
-      <c r="I25" s="28">
-        <v>4</v>
-      </c>
-      <c r="J25" s="28">
-        <v>3</v>
-      </c>
-      <c r="K25" s="28">
-        <v>4</v>
-      </c>
-      <c r="L25" s="28">
-        <v>3</v>
-      </c>
-      <c r="M25" s="28">
-        <v>4</v>
-      </c>
-      <c r="N25" s="29">
+      <c r="B25" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="16">
+        <v>4</v>
+      </c>
+      <c r="D25" s="16">
+        <v>4</v>
+      </c>
+      <c r="E25" s="16">
+        <v>4</v>
+      </c>
+      <c r="F25" s="16">
+        <v>3</v>
+      </c>
+      <c r="G25" s="16">
+        <v>3</v>
+      </c>
+      <c r="H25" s="16">
+        <v>3</v>
+      </c>
+      <c r="I25" s="16">
+        <v>4</v>
+      </c>
+      <c r="J25" s="16">
+        <v>3</v>
+      </c>
+      <c r="K25" s="16">
+        <v>4</v>
+      </c>
+      <c r="L25" s="16">
+        <v>3</v>
+      </c>
+      <c r="M25" s="16">
+        <v>4</v>
+      </c>
+      <c r="N25" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -5009,46 +5085,46 @@
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="26">
-        <v>4</v>
-      </c>
-      <c r="D26" s="26">
-        <v>4</v>
-      </c>
-      <c r="E26" s="26">
-        <v>3</v>
-      </c>
-      <c r="F26" s="26">
-        <v>4</v>
-      </c>
-      <c r="G26" s="26">
-        <v>4</v>
-      </c>
-      <c r="H26" s="26">
-        <v>3</v>
-      </c>
-      <c r="I26" s="26">
-        <v>4</v>
-      </c>
-      <c r="J26" s="26">
-        <v>4</v>
-      </c>
-      <c r="K26" s="26">
-        <v>3</v>
-      </c>
-      <c r="L26" s="26">
-        <v>4</v>
-      </c>
-      <c r="M26" s="26">
-        <v>4</v>
-      </c>
-      <c r="N26" s="29">
+      <c r="C26" s="14">
+        <v>4</v>
+      </c>
+      <c r="D26" s="14">
+        <v>4</v>
+      </c>
+      <c r="E26" s="14">
+        <v>3</v>
+      </c>
+      <c r="F26" s="14">
+        <v>4</v>
+      </c>
+      <c r="G26" s="14">
+        <v>4</v>
+      </c>
+      <c r="H26" s="14">
+        <v>3</v>
+      </c>
+      <c r="I26" s="14">
+        <v>4</v>
+      </c>
+      <c r="J26" s="14">
+        <v>4</v>
+      </c>
+      <c r="K26" s="14">
+        <v>3</v>
+      </c>
+      <c r="L26" s="14">
+        <v>4</v>
+      </c>
+      <c r="M26" s="14">
+        <v>4</v>
+      </c>
+      <c r="N26" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -5060,46 +5136,46 @@
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="26">
-        <v>4</v>
-      </c>
-      <c r="D27" s="26">
-        <v>4</v>
-      </c>
-      <c r="E27" s="26">
-        <v>4</v>
-      </c>
-      <c r="F27" s="26">
-        <v>3</v>
-      </c>
-      <c r="G27" s="26">
-        <v>4</v>
-      </c>
-      <c r="H27" s="26">
-        <v>4</v>
-      </c>
-      <c r="I27" s="26">
-        <v>3</v>
-      </c>
-      <c r="J27" s="26">
-        <v>4</v>
-      </c>
-      <c r="K27" s="26">
-        <v>4</v>
-      </c>
-      <c r="L27" s="26">
-        <v>3</v>
-      </c>
-      <c r="M27" s="26">
-        <v>4</v>
-      </c>
-      <c r="N27" s="29">
+      <c r="C27" s="14">
+        <v>4</v>
+      </c>
+      <c r="D27" s="14">
+        <v>4</v>
+      </c>
+      <c r="E27" s="14">
+        <v>4</v>
+      </c>
+      <c r="F27" s="14">
+        <v>3</v>
+      </c>
+      <c r="G27" s="14">
+        <v>4</v>
+      </c>
+      <c r="H27" s="14">
+        <v>4</v>
+      </c>
+      <c r="I27" s="14">
+        <v>3</v>
+      </c>
+      <c r="J27" s="14">
+        <v>4</v>
+      </c>
+      <c r="K27" s="14">
+        <v>4</v>
+      </c>
+      <c r="L27" s="14">
+        <v>3</v>
+      </c>
+      <c r="M27" s="14">
+        <v>4</v>
+      </c>
+      <c r="N27" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -5111,46 +5187,46 @@
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="26">
-        <v>4</v>
-      </c>
-      <c r="D28" s="26">
-        <v>3</v>
-      </c>
-      <c r="E28" s="26">
-        <v>4</v>
-      </c>
-      <c r="F28" s="26">
-        <v>3</v>
-      </c>
-      <c r="G28" s="26">
-        <v>4</v>
-      </c>
-      <c r="H28" s="26">
-        <v>4</v>
-      </c>
-      <c r="I28" s="26">
-        <v>4</v>
-      </c>
-      <c r="J28" s="26">
-        <v>4</v>
-      </c>
-      <c r="K28" s="26">
-        <v>3</v>
-      </c>
-      <c r="L28" s="26">
-        <v>4</v>
-      </c>
-      <c r="M28" s="26">
-        <v>3</v>
-      </c>
-      <c r="N28" s="29">
+      <c r="C28" s="14">
+        <v>4</v>
+      </c>
+      <c r="D28" s="14">
+        <v>3</v>
+      </c>
+      <c r="E28" s="14">
+        <v>4</v>
+      </c>
+      <c r="F28" s="14">
+        <v>3</v>
+      </c>
+      <c r="G28" s="14">
+        <v>4</v>
+      </c>
+      <c r="H28" s="14">
+        <v>4</v>
+      </c>
+      <c r="I28" s="14">
+        <v>4</v>
+      </c>
+      <c r="J28" s="14">
+        <v>4</v>
+      </c>
+      <c r="K28" s="14">
+        <v>3</v>
+      </c>
+      <c r="L28" s="14">
+        <v>4</v>
+      </c>
+      <c r="M28" s="14">
+        <v>3</v>
+      </c>
+      <c r="N28" s="17">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -5162,20 +5238,18 @@
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17">
         <f>SUM(N2:N28)</f>
         <v>1102</v>
       </c>

--- a/DOKUMENT/PENGUJIAN/pengujian public.xlsx
+++ b/DOKUMENT/PENGUJIAN/pengujian public.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\PENGUJIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E648B6-32B6-474A-9B3C-299EA524094C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94CC1FE-6835-4FCB-9058-04B46A63C5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,6 +596,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -626,28 +638,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1820,8 +1820,8 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1902,37 +1902,37 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="31">
-        <v>4</v>
-      </c>
-      <c r="D2" s="32">
-        <v>4</v>
-      </c>
-      <c r="E2" s="32">
-        <v>3</v>
-      </c>
-      <c r="F2" s="32">
-        <v>4</v>
-      </c>
-      <c r="G2" s="32">
-        <v>3</v>
-      </c>
-      <c r="H2" s="32">
-        <v>4</v>
-      </c>
-      <c r="I2" s="32">
-        <v>4</v>
-      </c>
-      <c r="J2" s="32">
-        <v>4</v>
-      </c>
-      <c r="K2" s="32">
-        <v>4</v>
-      </c>
-      <c r="L2" s="32">
-        <v>4</v>
-      </c>
-      <c r="M2" s="32">
+      <c r="C2" s="19">
+        <v>4</v>
+      </c>
+      <c r="D2" s="20">
+        <v>4</v>
+      </c>
+      <c r="E2" s="20">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20">
+        <v>3</v>
+      </c>
+      <c r="H2" s="20">
+        <v>4</v>
+      </c>
+      <c r="I2" s="20">
+        <v>4</v>
+      </c>
+      <c r="J2" s="20">
+        <v>4</v>
+      </c>
+      <c r="K2" s="20">
+        <v>4</v>
+      </c>
+      <c r="L2" s="20">
+        <v>4</v>
+      </c>
+      <c r="M2" s="20">
         <v>3</v>
       </c>
       <c r="N2" s="4">
@@ -1950,37 +1950,37 @@
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="33">
-        <v>4</v>
-      </c>
-      <c r="D3" s="34">
-        <v>3</v>
-      </c>
-      <c r="E3" s="34">
-        <v>4</v>
-      </c>
-      <c r="F3" s="34">
-        <v>4</v>
-      </c>
-      <c r="G3" s="34">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34">
-        <v>3</v>
-      </c>
-      <c r="I3" s="34">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34">
-        <v>4</v>
-      </c>
-      <c r="K3" s="34">
-        <v>4</v>
-      </c>
-      <c r="L3" s="34">
-        <v>3</v>
-      </c>
-      <c r="M3" s="34">
+      <c r="C3" s="21">
+        <v>4</v>
+      </c>
+      <c r="D3" s="22">
+        <v>3</v>
+      </c>
+      <c r="E3" s="22">
+        <v>4</v>
+      </c>
+      <c r="F3" s="22">
+        <v>4</v>
+      </c>
+      <c r="G3" s="22">
+        <v>3</v>
+      </c>
+      <c r="H3" s="22">
+        <v>3</v>
+      </c>
+      <c r="I3" s="22">
+        <v>3</v>
+      </c>
+      <c r="J3" s="22">
+        <v>4</v>
+      </c>
+      <c r="K3" s="22">
+        <v>4</v>
+      </c>
+      <c r="L3" s="22">
+        <v>3</v>
+      </c>
+      <c r="M3" s="22">
         <v>3</v>
       </c>
       <c r="N3" s="4">
@@ -1998,37 +1998,37 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="33">
-        <v>4</v>
-      </c>
-      <c r="D4" s="34">
-        <v>4</v>
-      </c>
-      <c r="E4" s="34">
-        <v>4</v>
-      </c>
-      <c r="F4" s="34">
-        <v>3</v>
-      </c>
-      <c r="G4" s="34">
-        <v>4</v>
-      </c>
-      <c r="H4" s="34">
-        <v>4</v>
-      </c>
-      <c r="I4" s="34">
-        <v>4</v>
-      </c>
-      <c r="J4" s="34">
-        <v>4</v>
-      </c>
-      <c r="K4" s="34">
-        <v>3</v>
-      </c>
-      <c r="L4" s="34">
-        <v>4</v>
-      </c>
-      <c r="M4" s="34">
+      <c r="C4" s="21">
+        <v>4</v>
+      </c>
+      <c r="D4" s="22">
+        <v>4</v>
+      </c>
+      <c r="E4" s="22">
+        <v>4</v>
+      </c>
+      <c r="F4" s="22">
+        <v>3</v>
+      </c>
+      <c r="G4" s="22">
+        <v>4</v>
+      </c>
+      <c r="H4" s="22">
+        <v>4</v>
+      </c>
+      <c r="I4" s="22">
+        <v>4</v>
+      </c>
+      <c r="J4" s="22">
+        <v>4</v>
+      </c>
+      <c r="K4" s="22">
+        <v>3</v>
+      </c>
+      <c r="L4" s="22">
+        <v>4</v>
+      </c>
+      <c r="M4" s="22">
         <v>4</v>
       </c>
       <c r="N4" s="4">
@@ -2046,37 +2046,37 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="33">
-        <v>4</v>
-      </c>
-      <c r="D5" s="34">
-        <v>4</v>
-      </c>
-      <c r="E5" s="34">
-        <v>4</v>
-      </c>
-      <c r="F5" s="34">
-        <v>3</v>
-      </c>
-      <c r="G5" s="34">
-        <v>4</v>
-      </c>
-      <c r="H5" s="34">
-        <v>3</v>
-      </c>
-      <c r="I5" s="34">
-        <v>4</v>
-      </c>
-      <c r="J5" s="34">
-        <v>4</v>
-      </c>
-      <c r="K5" s="34">
-        <v>4</v>
-      </c>
-      <c r="L5" s="34">
-        <v>4</v>
-      </c>
-      <c r="M5" s="34">
+      <c r="C5" s="21">
+        <v>4</v>
+      </c>
+      <c r="D5" s="22">
+        <v>4</v>
+      </c>
+      <c r="E5" s="22">
+        <v>4</v>
+      </c>
+      <c r="F5" s="22">
+        <v>3</v>
+      </c>
+      <c r="G5" s="22">
+        <v>4</v>
+      </c>
+      <c r="H5" s="22">
+        <v>3</v>
+      </c>
+      <c r="I5" s="22">
+        <v>4</v>
+      </c>
+      <c r="J5" s="22">
+        <v>4</v>
+      </c>
+      <c r="K5" s="22">
+        <v>4</v>
+      </c>
+      <c r="L5" s="22">
+        <v>4</v>
+      </c>
+      <c r="M5" s="22">
         <v>3</v>
       </c>
       <c r="N5" s="4">
@@ -2094,37 +2094,37 @@
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33">
-        <v>4</v>
-      </c>
-      <c r="D6" s="34">
-        <v>3</v>
-      </c>
-      <c r="E6" s="34">
-        <v>4</v>
-      </c>
-      <c r="F6" s="34">
-        <v>3</v>
-      </c>
-      <c r="G6" s="34">
-        <v>4</v>
-      </c>
-      <c r="H6" s="34">
-        <v>4</v>
-      </c>
-      <c r="I6" s="34">
-        <v>4</v>
-      </c>
-      <c r="J6" s="34">
-        <v>4</v>
-      </c>
-      <c r="K6" s="34">
-        <v>4</v>
-      </c>
-      <c r="L6" s="34">
-        <v>4</v>
-      </c>
-      <c r="M6" s="34">
+      <c r="C6" s="21">
+        <v>4</v>
+      </c>
+      <c r="D6" s="22">
+        <v>3</v>
+      </c>
+      <c r="E6" s="22">
+        <v>4</v>
+      </c>
+      <c r="F6" s="22">
+        <v>3</v>
+      </c>
+      <c r="G6" s="22">
+        <v>4</v>
+      </c>
+      <c r="H6" s="22">
+        <v>4</v>
+      </c>
+      <c r="I6" s="22">
+        <v>4</v>
+      </c>
+      <c r="J6" s="22">
+        <v>4</v>
+      </c>
+      <c r="K6" s="22">
+        <v>4</v>
+      </c>
+      <c r="L6" s="22">
+        <v>4</v>
+      </c>
+      <c r="M6" s="22">
         <v>3</v>
       </c>
       <c r="N6" s="4">
@@ -2142,37 +2142,37 @@
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="33">
-        <v>4</v>
-      </c>
-      <c r="D7" s="34">
-        <v>4</v>
-      </c>
-      <c r="E7" s="34">
-        <v>4</v>
-      </c>
-      <c r="F7" s="34">
-        <v>4</v>
-      </c>
-      <c r="G7" s="34">
-        <v>4</v>
-      </c>
-      <c r="H7" s="34">
-        <v>4</v>
-      </c>
-      <c r="I7" s="34">
-        <v>4</v>
-      </c>
-      <c r="J7" s="34">
-        <v>4</v>
-      </c>
-      <c r="K7" s="34">
-        <v>4</v>
-      </c>
-      <c r="L7" s="34">
-        <v>4</v>
-      </c>
-      <c r="M7" s="34">
+      <c r="C7" s="21">
+        <v>4</v>
+      </c>
+      <c r="D7" s="22">
+        <v>4</v>
+      </c>
+      <c r="E7" s="22">
+        <v>4</v>
+      </c>
+      <c r="F7" s="22">
+        <v>4</v>
+      </c>
+      <c r="G7" s="22">
+        <v>4</v>
+      </c>
+      <c r="H7" s="22">
+        <v>4</v>
+      </c>
+      <c r="I7" s="22">
+        <v>4</v>
+      </c>
+      <c r="J7" s="22">
+        <v>4</v>
+      </c>
+      <c r="K7" s="22">
+        <v>4</v>
+      </c>
+      <c r="L7" s="22">
+        <v>4</v>
+      </c>
+      <c r="M7" s="22">
         <v>4</v>
       </c>
       <c r="N7" s="4">
@@ -2190,37 +2190,37 @@
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="33">
-        <v>4</v>
-      </c>
-      <c r="D8" s="34">
-        <v>4</v>
-      </c>
-      <c r="E8" s="34">
-        <v>4</v>
-      </c>
-      <c r="F8" s="34">
-        <v>3</v>
-      </c>
-      <c r="G8" s="34">
-        <v>4</v>
-      </c>
-      <c r="H8" s="34">
-        <v>4</v>
-      </c>
-      <c r="I8" s="34">
-        <v>4</v>
-      </c>
-      <c r="J8" s="34">
-        <v>4</v>
-      </c>
-      <c r="K8" s="34">
-        <v>4</v>
-      </c>
-      <c r="L8" s="34">
-        <v>3</v>
-      </c>
-      <c r="M8" s="34">
+      <c r="C8" s="21">
+        <v>4</v>
+      </c>
+      <c r="D8" s="22">
+        <v>4</v>
+      </c>
+      <c r="E8" s="22">
+        <v>4</v>
+      </c>
+      <c r="F8" s="22">
+        <v>3</v>
+      </c>
+      <c r="G8" s="22">
+        <v>4</v>
+      </c>
+      <c r="H8" s="22">
+        <v>4</v>
+      </c>
+      <c r="I8" s="22">
+        <v>4</v>
+      </c>
+      <c r="J8" s="22">
+        <v>4</v>
+      </c>
+      <c r="K8" s="22">
+        <v>4</v>
+      </c>
+      <c r="L8" s="22">
+        <v>3</v>
+      </c>
+      <c r="M8" s="22">
         <v>4</v>
       </c>
       <c r="N8" s="4">
@@ -2238,37 +2238,37 @@
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="33">
-        <v>4</v>
-      </c>
-      <c r="D9" s="34">
-        <v>3</v>
-      </c>
-      <c r="E9" s="34">
-        <v>4</v>
-      </c>
-      <c r="F9" s="34">
-        <v>4</v>
-      </c>
-      <c r="G9" s="34">
-        <v>4</v>
-      </c>
-      <c r="H9" s="34">
-        <v>4</v>
-      </c>
-      <c r="I9" s="34">
-        <v>4</v>
-      </c>
-      <c r="J9" s="34">
-        <v>4</v>
-      </c>
-      <c r="K9" s="34">
-        <v>4</v>
-      </c>
-      <c r="L9" s="34">
-        <v>3</v>
-      </c>
-      <c r="M9" s="34">
+      <c r="C9" s="21">
+        <v>4</v>
+      </c>
+      <c r="D9" s="22">
+        <v>3</v>
+      </c>
+      <c r="E9" s="22">
+        <v>4</v>
+      </c>
+      <c r="F9" s="22">
+        <v>4</v>
+      </c>
+      <c r="G9" s="22">
+        <v>4</v>
+      </c>
+      <c r="H9" s="22">
+        <v>4</v>
+      </c>
+      <c r="I9" s="22">
+        <v>4</v>
+      </c>
+      <c r="J9" s="22">
+        <v>4</v>
+      </c>
+      <c r="K9" s="22">
+        <v>4</v>
+      </c>
+      <c r="L9" s="22">
+        <v>3</v>
+      </c>
+      <c r="M9" s="22">
         <v>4</v>
       </c>
       <c r="N9" s="4">
@@ -2286,37 +2286,37 @@
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="33">
-        <v>4</v>
-      </c>
-      <c r="D10" s="34">
-        <v>3</v>
-      </c>
-      <c r="E10" s="34">
-        <v>3</v>
-      </c>
-      <c r="F10" s="34">
-        <v>4</v>
-      </c>
-      <c r="G10" s="34">
-        <v>4</v>
-      </c>
-      <c r="H10" s="34">
-        <v>4</v>
-      </c>
-      <c r="I10" s="34">
-        <v>4</v>
-      </c>
-      <c r="J10" s="34">
-        <v>3</v>
-      </c>
-      <c r="K10" s="34">
-        <v>3</v>
-      </c>
-      <c r="L10" s="34">
-        <v>3</v>
-      </c>
-      <c r="M10" s="34">
+      <c r="C10" s="21">
+        <v>4</v>
+      </c>
+      <c r="D10" s="22">
+        <v>3</v>
+      </c>
+      <c r="E10" s="22">
+        <v>3</v>
+      </c>
+      <c r="F10" s="22">
+        <v>4</v>
+      </c>
+      <c r="G10" s="22">
+        <v>4</v>
+      </c>
+      <c r="H10" s="22">
+        <v>4</v>
+      </c>
+      <c r="I10" s="22">
+        <v>4</v>
+      </c>
+      <c r="J10" s="22">
+        <v>3</v>
+      </c>
+      <c r="K10" s="22">
+        <v>3</v>
+      </c>
+      <c r="L10" s="22">
+        <v>3</v>
+      </c>
+      <c r="M10" s="22">
         <v>4</v>
       </c>
       <c r="N10" s="4">
@@ -2334,37 +2334,37 @@
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="33">
-        <v>4</v>
-      </c>
-      <c r="D11" s="34">
-        <v>4</v>
-      </c>
-      <c r="E11" s="34">
-        <v>4</v>
-      </c>
-      <c r="F11" s="34">
-        <v>3</v>
-      </c>
-      <c r="G11" s="34">
-        <v>4</v>
-      </c>
-      <c r="H11" s="34">
-        <v>4</v>
-      </c>
-      <c r="I11" s="34">
-        <v>4</v>
-      </c>
-      <c r="J11" s="34">
-        <v>4</v>
-      </c>
-      <c r="K11" s="34">
-        <v>4</v>
-      </c>
-      <c r="L11" s="34">
-        <v>4</v>
-      </c>
-      <c r="M11" s="34">
+      <c r="C11" s="21">
+        <v>4</v>
+      </c>
+      <c r="D11" s="22">
+        <v>4</v>
+      </c>
+      <c r="E11" s="22">
+        <v>4</v>
+      </c>
+      <c r="F11" s="22">
+        <v>3</v>
+      </c>
+      <c r="G11" s="22">
+        <v>4</v>
+      </c>
+      <c r="H11" s="22">
+        <v>4</v>
+      </c>
+      <c r="I11" s="22">
+        <v>4</v>
+      </c>
+      <c r="J11" s="22">
+        <v>4</v>
+      </c>
+      <c r="K11" s="22">
+        <v>4</v>
+      </c>
+      <c r="L11" s="22">
+        <v>4</v>
+      </c>
+      <c r="M11" s="22">
         <v>4</v>
       </c>
       <c r="N11" s="4">
@@ -2382,37 +2382,37 @@
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="33">
-        <v>4</v>
-      </c>
-      <c r="D12" s="34">
-        <v>4</v>
-      </c>
-      <c r="E12" s="34">
-        <v>4</v>
-      </c>
-      <c r="F12" s="34">
-        <v>4</v>
-      </c>
-      <c r="G12" s="34">
-        <v>3</v>
-      </c>
-      <c r="H12" s="34">
-        <v>4</v>
-      </c>
-      <c r="I12" s="34">
-        <v>3</v>
-      </c>
-      <c r="J12" s="34">
-        <v>4</v>
-      </c>
-      <c r="K12" s="34">
-        <v>4</v>
-      </c>
-      <c r="L12" s="34">
-        <v>4</v>
-      </c>
-      <c r="M12" s="34">
+      <c r="C12" s="21">
+        <v>4</v>
+      </c>
+      <c r="D12" s="22">
+        <v>4</v>
+      </c>
+      <c r="E12" s="22">
+        <v>4</v>
+      </c>
+      <c r="F12" s="22">
+        <v>4</v>
+      </c>
+      <c r="G12" s="22">
+        <v>3</v>
+      </c>
+      <c r="H12" s="22">
+        <v>4</v>
+      </c>
+      <c r="I12" s="22">
+        <v>3</v>
+      </c>
+      <c r="J12" s="22">
+        <v>4</v>
+      </c>
+      <c r="K12" s="22">
+        <v>4</v>
+      </c>
+      <c r="L12" s="22">
+        <v>4</v>
+      </c>
+      <c r="M12" s="22">
         <v>3</v>
       </c>
       <c r="N12" s="4">
@@ -2430,37 +2430,37 @@
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="33">
-        <v>3</v>
-      </c>
-      <c r="D13" s="34">
-        <v>3</v>
-      </c>
-      <c r="E13" s="34">
-        <v>4</v>
-      </c>
-      <c r="F13" s="34">
-        <v>4</v>
-      </c>
-      <c r="G13" s="34">
-        <v>3</v>
-      </c>
-      <c r="H13" s="34">
-        <v>4</v>
-      </c>
-      <c r="I13" s="34">
-        <v>3</v>
-      </c>
-      <c r="J13" s="34">
-        <v>4</v>
-      </c>
-      <c r="K13" s="34">
-        <v>4</v>
-      </c>
-      <c r="L13" s="34">
-        <v>3</v>
-      </c>
-      <c r="M13" s="34">
+      <c r="C13" s="21">
+        <v>3</v>
+      </c>
+      <c r="D13" s="22">
+        <v>3</v>
+      </c>
+      <c r="E13" s="22">
+        <v>4</v>
+      </c>
+      <c r="F13" s="22">
+        <v>4</v>
+      </c>
+      <c r="G13" s="22">
+        <v>3</v>
+      </c>
+      <c r="H13" s="22">
+        <v>4</v>
+      </c>
+      <c r="I13" s="22">
+        <v>3</v>
+      </c>
+      <c r="J13" s="22">
+        <v>4</v>
+      </c>
+      <c r="K13" s="22">
+        <v>4</v>
+      </c>
+      <c r="L13" s="22">
+        <v>3</v>
+      </c>
+      <c r="M13" s="22">
         <v>4</v>
       </c>
       <c r="N13" s="4">
@@ -2478,37 +2478,37 @@
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="33">
-        <v>4</v>
-      </c>
-      <c r="D14" s="34">
-        <v>4</v>
-      </c>
-      <c r="E14" s="34">
-        <v>3</v>
-      </c>
-      <c r="F14" s="34">
-        <v>3</v>
-      </c>
-      <c r="G14" s="34">
-        <v>4</v>
-      </c>
-      <c r="H14" s="34">
-        <v>4</v>
-      </c>
-      <c r="I14" s="34">
-        <v>4</v>
-      </c>
-      <c r="J14" s="34">
-        <v>4</v>
-      </c>
-      <c r="K14" s="34">
-        <v>4</v>
-      </c>
-      <c r="L14" s="34">
-        <v>3</v>
-      </c>
-      <c r="M14" s="34">
+      <c r="C14" s="21">
+        <v>4</v>
+      </c>
+      <c r="D14" s="22">
+        <v>4</v>
+      </c>
+      <c r="E14" s="22">
+        <v>3</v>
+      </c>
+      <c r="F14" s="22">
+        <v>3</v>
+      </c>
+      <c r="G14" s="22">
+        <v>4</v>
+      </c>
+      <c r="H14" s="22">
+        <v>4</v>
+      </c>
+      <c r="I14" s="22">
+        <v>4</v>
+      </c>
+      <c r="J14" s="22">
+        <v>4</v>
+      </c>
+      <c r="K14" s="22">
+        <v>4</v>
+      </c>
+      <c r="L14" s="22">
+        <v>3</v>
+      </c>
+      <c r="M14" s="22">
         <v>3</v>
       </c>
       <c r="N14" s="4">
@@ -2526,37 +2526,37 @@
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="33">
-        <v>4</v>
-      </c>
-      <c r="D15" s="34">
-        <v>4</v>
-      </c>
-      <c r="E15" s="34">
-        <v>3</v>
-      </c>
-      <c r="F15" s="34">
-        <v>4</v>
-      </c>
-      <c r="G15" s="34">
-        <v>4</v>
-      </c>
-      <c r="H15" s="34">
-        <v>4</v>
-      </c>
-      <c r="I15" s="34">
-        <v>3</v>
-      </c>
-      <c r="J15" s="34">
-        <v>4</v>
-      </c>
-      <c r="K15" s="34">
-        <v>4</v>
-      </c>
-      <c r="L15" s="34">
-        <v>4</v>
-      </c>
-      <c r="M15" s="34">
+      <c r="C15" s="21">
+        <v>4</v>
+      </c>
+      <c r="D15" s="22">
+        <v>4</v>
+      </c>
+      <c r="E15" s="22">
+        <v>3</v>
+      </c>
+      <c r="F15" s="22">
+        <v>4</v>
+      </c>
+      <c r="G15" s="22">
+        <v>4</v>
+      </c>
+      <c r="H15" s="22">
+        <v>4</v>
+      </c>
+      <c r="I15" s="22">
+        <v>3</v>
+      </c>
+      <c r="J15" s="22">
+        <v>4</v>
+      </c>
+      <c r="K15" s="22">
+        <v>4</v>
+      </c>
+      <c r="L15" s="22">
+        <v>4</v>
+      </c>
+      <c r="M15" s="22">
         <v>3</v>
       </c>
       <c r="N15" s="4">
@@ -2574,37 +2574,37 @@
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="33">
-        <v>3</v>
-      </c>
-      <c r="D16" s="34">
-        <v>4</v>
-      </c>
-      <c r="E16" s="34">
-        <v>4</v>
-      </c>
-      <c r="F16" s="34">
-        <v>3</v>
-      </c>
-      <c r="G16" s="34">
-        <v>4</v>
-      </c>
-      <c r="H16" s="34">
-        <v>3</v>
-      </c>
-      <c r="I16" s="34">
-        <v>3</v>
-      </c>
-      <c r="J16" s="34">
-        <v>4</v>
-      </c>
-      <c r="K16" s="34">
-        <v>3</v>
-      </c>
-      <c r="L16" s="34">
-        <v>3</v>
-      </c>
-      <c r="M16" s="34">
+      <c r="C16" s="21">
+        <v>3</v>
+      </c>
+      <c r="D16" s="22">
+        <v>4</v>
+      </c>
+      <c r="E16" s="22">
+        <v>4</v>
+      </c>
+      <c r="F16" s="22">
+        <v>3</v>
+      </c>
+      <c r="G16" s="22">
+        <v>4</v>
+      </c>
+      <c r="H16" s="22">
+        <v>3</v>
+      </c>
+      <c r="I16" s="22">
+        <v>3</v>
+      </c>
+      <c r="J16" s="22">
+        <v>4</v>
+      </c>
+      <c r="K16" s="22">
+        <v>3</v>
+      </c>
+      <c r="L16" s="22">
+        <v>3</v>
+      </c>
+      <c r="M16" s="22">
         <v>4</v>
       </c>
       <c r="N16" s="4">
@@ -2622,37 +2622,37 @@
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="33">
-        <v>4</v>
-      </c>
-      <c r="D17" s="34">
-        <v>4</v>
-      </c>
-      <c r="E17" s="34">
-        <v>3</v>
-      </c>
-      <c r="F17" s="34">
-        <v>4</v>
-      </c>
-      <c r="G17" s="34">
-        <v>4</v>
-      </c>
-      <c r="H17" s="34">
-        <v>4</v>
-      </c>
-      <c r="I17" s="34">
-        <v>4</v>
-      </c>
-      <c r="J17" s="34">
-        <v>4</v>
-      </c>
-      <c r="K17" s="34">
-        <v>4</v>
-      </c>
-      <c r="L17" s="34">
-        <v>4</v>
-      </c>
-      <c r="M17" s="34">
+      <c r="C17" s="21">
+        <v>4</v>
+      </c>
+      <c r="D17" s="22">
+        <v>4</v>
+      </c>
+      <c r="E17" s="22">
+        <v>3</v>
+      </c>
+      <c r="F17" s="22">
+        <v>4</v>
+      </c>
+      <c r="G17" s="22">
+        <v>4</v>
+      </c>
+      <c r="H17" s="22">
+        <v>4</v>
+      </c>
+      <c r="I17" s="22">
+        <v>4</v>
+      </c>
+      <c r="J17" s="22">
+        <v>4</v>
+      </c>
+      <c r="K17" s="22">
+        <v>4</v>
+      </c>
+      <c r="L17" s="22">
+        <v>4</v>
+      </c>
+      <c r="M17" s="22">
         <v>3</v>
       </c>
       <c r="N17" s="4">
@@ -2670,37 +2670,37 @@
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="33">
-        <v>4</v>
-      </c>
-      <c r="D18" s="34">
-        <v>4</v>
-      </c>
-      <c r="E18" s="34">
-        <v>4</v>
-      </c>
-      <c r="F18" s="34">
-        <v>4</v>
-      </c>
-      <c r="G18" s="34">
-        <v>3</v>
-      </c>
-      <c r="H18" s="34">
-        <v>4</v>
-      </c>
-      <c r="I18" s="34">
-        <v>4</v>
-      </c>
-      <c r="J18" s="34">
-        <v>4</v>
-      </c>
-      <c r="K18" s="34">
-        <v>3</v>
-      </c>
-      <c r="L18" s="34">
-        <v>4</v>
-      </c>
-      <c r="M18" s="34">
+      <c r="C18" s="21">
+        <v>4</v>
+      </c>
+      <c r="D18" s="22">
+        <v>4</v>
+      </c>
+      <c r="E18" s="22">
+        <v>4</v>
+      </c>
+      <c r="F18" s="22">
+        <v>4</v>
+      </c>
+      <c r="G18" s="22">
+        <v>3</v>
+      </c>
+      <c r="H18" s="22">
+        <v>4</v>
+      </c>
+      <c r="I18" s="22">
+        <v>4</v>
+      </c>
+      <c r="J18" s="22">
+        <v>4</v>
+      </c>
+      <c r="K18" s="22">
+        <v>3</v>
+      </c>
+      <c r="L18" s="22">
+        <v>4</v>
+      </c>
+      <c r="M18" s="22">
         <v>4</v>
       </c>
       <c r="N18" s="4">
@@ -2718,37 +2718,37 @@
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="33">
-        <v>4</v>
-      </c>
-      <c r="D19" s="34">
-        <v>4</v>
-      </c>
-      <c r="E19" s="34">
-        <v>4</v>
-      </c>
-      <c r="F19" s="34">
-        <v>4</v>
-      </c>
-      <c r="G19" s="34">
-        <v>4</v>
-      </c>
-      <c r="H19" s="34">
-        <v>3</v>
-      </c>
-      <c r="I19" s="34">
-        <v>3</v>
-      </c>
-      <c r="J19" s="34">
-        <v>4</v>
-      </c>
-      <c r="K19" s="34">
-        <v>4</v>
-      </c>
-      <c r="L19" s="34">
-        <v>3</v>
-      </c>
-      <c r="M19" s="34">
+      <c r="C19" s="21">
+        <v>4</v>
+      </c>
+      <c r="D19" s="22">
+        <v>4</v>
+      </c>
+      <c r="E19" s="22">
+        <v>4</v>
+      </c>
+      <c r="F19" s="22">
+        <v>4</v>
+      </c>
+      <c r="G19" s="22">
+        <v>4</v>
+      </c>
+      <c r="H19" s="22">
+        <v>3</v>
+      </c>
+      <c r="I19" s="22">
+        <v>3</v>
+      </c>
+      <c r="J19" s="22">
+        <v>4</v>
+      </c>
+      <c r="K19" s="22">
+        <v>4</v>
+      </c>
+      <c r="L19" s="22">
+        <v>3</v>
+      </c>
+      <c r="M19" s="22">
         <v>4</v>
       </c>
       <c r="N19" s="4">
@@ -2766,37 +2766,37 @@
       <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="33">
-        <v>4</v>
-      </c>
-      <c r="D20" s="34">
-        <v>4</v>
-      </c>
-      <c r="E20" s="34">
-        <v>4</v>
-      </c>
-      <c r="F20" s="34">
-        <v>4</v>
-      </c>
-      <c r="G20" s="34">
-        <v>4</v>
-      </c>
-      <c r="H20" s="34">
-        <v>4</v>
-      </c>
-      <c r="I20" s="34">
-        <v>4</v>
-      </c>
-      <c r="J20" s="34">
-        <v>3</v>
-      </c>
-      <c r="K20" s="34">
-        <v>4</v>
-      </c>
-      <c r="L20" s="34">
-        <v>3</v>
-      </c>
-      <c r="M20" s="34">
+      <c r="C20" s="21">
+        <v>4</v>
+      </c>
+      <c r="D20" s="22">
+        <v>4</v>
+      </c>
+      <c r="E20" s="22">
+        <v>4</v>
+      </c>
+      <c r="F20" s="22">
+        <v>4</v>
+      </c>
+      <c r="G20" s="22">
+        <v>4</v>
+      </c>
+      <c r="H20" s="22">
+        <v>4</v>
+      </c>
+      <c r="I20" s="22">
+        <v>4</v>
+      </c>
+      <c r="J20" s="22">
+        <v>3</v>
+      </c>
+      <c r="K20" s="22">
+        <v>4</v>
+      </c>
+      <c r="L20" s="22">
+        <v>3</v>
+      </c>
+      <c r="M20" s="22">
         <v>4</v>
       </c>
       <c r="N20" s="4">
@@ -2814,37 +2814,37 @@
       <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="33">
-        <v>4</v>
-      </c>
-      <c r="D21" s="34">
-        <v>4</v>
-      </c>
-      <c r="E21" s="34">
-        <v>4</v>
-      </c>
-      <c r="F21" s="34">
-        <v>4</v>
-      </c>
-      <c r="G21" s="34">
-        <v>3</v>
-      </c>
-      <c r="H21" s="34">
-        <v>4</v>
-      </c>
-      <c r="I21" s="34">
-        <v>4</v>
-      </c>
-      <c r="J21" s="34">
-        <v>3</v>
-      </c>
-      <c r="K21" s="34">
-        <v>4</v>
-      </c>
-      <c r="L21" s="34">
-        <v>4</v>
-      </c>
-      <c r="M21" s="34">
+      <c r="C21" s="21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="22">
+        <v>4</v>
+      </c>
+      <c r="E21" s="22">
+        <v>4</v>
+      </c>
+      <c r="F21" s="22">
+        <v>4</v>
+      </c>
+      <c r="G21" s="22">
+        <v>3</v>
+      </c>
+      <c r="H21" s="22">
+        <v>4</v>
+      </c>
+      <c r="I21" s="22">
+        <v>4</v>
+      </c>
+      <c r="J21" s="22">
+        <v>3</v>
+      </c>
+      <c r="K21" s="22">
+        <v>4</v>
+      </c>
+      <c r="L21" s="22">
+        <v>4</v>
+      </c>
+      <c r="M21" s="22">
         <v>3</v>
       </c>
       <c r="N21" s="4">
@@ -2862,37 +2862,37 @@
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="33">
-        <v>4</v>
-      </c>
-      <c r="D22" s="34">
-        <v>4</v>
-      </c>
-      <c r="E22" s="34">
-        <v>4</v>
-      </c>
-      <c r="F22" s="34">
-        <v>3</v>
-      </c>
-      <c r="G22" s="34">
-        <v>4</v>
-      </c>
-      <c r="H22" s="34">
-        <v>3</v>
-      </c>
-      <c r="I22" s="34">
-        <v>4</v>
-      </c>
-      <c r="J22" s="34">
-        <v>3</v>
-      </c>
-      <c r="K22" s="34">
-        <v>4</v>
-      </c>
-      <c r="L22" s="34">
-        <v>4</v>
-      </c>
-      <c r="M22" s="34">
+      <c r="C22" s="21">
+        <v>4</v>
+      </c>
+      <c r="D22" s="22">
+        <v>4</v>
+      </c>
+      <c r="E22" s="22">
+        <v>4</v>
+      </c>
+      <c r="F22" s="22">
+        <v>3</v>
+      </c>
+      <c r="G22" s="22">
+        <v>4</v>
+      </c>
+      <c r="H22" s="22">
+        <v>3</v>
+      </c>
+      <c r="I22" s="22">
+        <v>4</v>
+      </c>
+      <c r="J22" s="22">
+        <v>3</v>
+      </c>
+      <c r="K22" s="22">
+        <v>4</v>
+      </c>
+      <c r="L22" s="22">
+        <v>4</v>
+      </c>
+      <c r="M22" s="22">
         <v>4</v>
       </c>
       <c r="N22" s="4">
@@ -2910,37 +2910,37 @@
       <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="33">
-        <v>4</v>
-      </c>
-      <c r="D23" s="34">
-        <v>4</v>
-      </c>
-      <c r="E23" s="34">
-        <v>4</v>
-      </c>
-      <c r="F23" s="34">
-        <v>3</v>
-      </c>
-      <c r="G23" s="34">
-        <v>4</v>
-      </c>
-      <c r="H23" s="34">
-        <v>3</v>
-      </c>
-      <c r="I23" s="34">
-        <v>4</v>
-      </c>
-      <c r="J23" s="34">
-        <v>3</v>
-      </c>
-      <c r="K23" s="34">
-        <v>4</v>
-      </c>
-      <c r="L23" s="34">
-        <v>4</v>
-      </c>
-      <c r="M23" s="34">
+      <c r="C23" s="21">
+        <v>4</v>
+      </c>
+      <c r="D23" s="22">
+        <v>4</v>
+      </c>
+      <c r="E23" s="22">
+        <v>4</v>
+      </c>
+      <c r="F23" s="22">
+        <v>3</v>
+      </c>
+      <c r="G23" s="22">
+        <v>4</v>
+      </c>
+      <c r="H23" s="22">
+        <v>3</v>
+      </c>
+      <c r="I23" s="22">
+        <v>4</v>
+      </c>
+      <c r="J23" s="22">
+        <v>3</v>
+      </c>
+      <c r="K23" s="22">
+        <v>4</v>
+      </c>
+      <c r="L23" s="22">
+        <v>4</v>
+      </c>
+      <c r="M23" s="22">
         <v>4</v>
       </c>
       <c r="N23" s="4">
@@ -2958,37 +2958,37 @@
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="33">
-        <v>4</v>
-      </c>
-      <c r="D24" s="34">
-        <v>4</v>
-      </c>
-      <c r="E24" s="34">
-        <v>3</v>
-      </c>
-      <c r="F24" s="34">
-        <v>3</v>
-      </c>
-      <c r="G24" s="34">
-        <v>4</v>
-      </c>
-      <c r="H24" s="34">
-        <v>3</v>
-      </c>
-      <c r="I24" s="34">
-        <v>3</v>
-      </c>
-      <c r="J24" s="34">
-        <v>4</v>
-      </c>
-      <c r="K24" s="34">
-        <v>4</v>
-      </c>
-      <c r="L24" s="34">
-        <v>3</v>
-      </c>
-      <c r="M24" s="34">
+      <c r="C24" s="21">
+        <v>4</v>
+      </c>
+      <c r="D24" s="22">
+        <v>4</v>
+      </c>
+      <c r="E24" s="22">
+        <v>3</v>
+      </c>
+      <c r="F24" s="22">
+        <v>3</v>
+      </c>
+      <c r="G24" s="22">
+        <v>4</v>
+      </c>
+      <c r="H24" s="22">
+        <v>3</v>
+      </c>
+      <c r="I24" s="22">
+        <v>3</v>
+      </c>
+      <c r="J24" s="22">
+        <v>4</v>
+      </c>
+      <c r="K24" s="22">
+        <v>4</v>
+      </c>
+      <c r="L24" s="22">
+        <v>3</v>
+      </c>
+      <c r="M24" s="22">
         <v>4</v>
       </c>
       <c r="N24" s="4">
@@ -3006,37 +3006,37 @@
       <c r="B25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="33">
-        <v>4</v>
-      </c>
-      <c r="D25" s="34">
-        <v>4</v>
-      </c>
-      <c r="E25" s="34">
-        <v>4</v>
-      </c>
-      <c r="F25" s="34">
-        <v>3</v>
-      </c>
-      <c r="G25" s="34">
-        <v>3</v>
-      </c>
-      <c r="H25" s="34">
-        <v>3</v>
-      </c>
-      <c r="I25" s="34">
-        <v>4</v>
-      </c>
-      <c r="J25" s="34">
-        <v>3</v>
-      </c>
-      <c r="K25" s="34">
-        <v>4</v>
-      </c>
-      <c r="L25" s="34">
-        <v>3</v>
-      </c>
-      <c r="M25" s="34">
+      <c r="C25" s="21">
+        <v>4</v>
+      </c>
+      <c r="D25" s="22">
+        <v>4</v>
+      </c>
+      <c r="E25" s="22">
+        <v>4</v>
+      </c>
+      <c r="F25" s="22">
+        <v>3</v>
+      </c>
+      <c r="G25" s="22">
+        <v>3</v>
+      </c>
+      <c r="H25" s="22">
+        <v>3</v>
+      </c>
+      <c r="I25" s="22">
+        <v>4</v>
+      </c>
+      <c r="J25" s="22">
+        <v>3</v>
+      </c>
+      <c r="K25" s="22">
+        <v>4</v>
+      </c>
+      <c r="L25" s="22">
+        <v>3</v>
+      </c>
+      <c r="M25" s="22">
         <v>4</v>
       </c>
       <c r="N25" s="4">
@@ -3054,37 +3054,37 @@
       <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="33">
-        <v>4</v>
-      </c>
-      <c r="D26" s="34">
-        <v>4</v>
-      </c>
-      <c r="E26" s="34">
-        <v>3</v>
-      </c>
-      <c r="F26" s="34">
-        <v>4</v>
-      </c>
-      <c r="G26" s="34">
-        <v>4</v>
-      </c>
-      <c r="H26" s="34">
-        <v>3</v>
-      </c>
-      <c r="I26" s="34">
-        <v>4</v>
-      </c>
-      <c r="J26" s="34">
-        <v>4</v>
-      </c>
-      <c r="K26" s="34">
-        <v>3</v>
-      </c>
-      <c r="L26" s="34">
-        <v>4</v>
-      </c>
-      <c r="M26" s="34">
+      <c r="C26" s="21">
+        <v>4</v>
+      </c>
+      <c r="D26" s="22">
+        <v>4</v>
+      </c>
+      <c r="E26" s="22">
+        <v>3</v>
+      </c>
+      <c r="F26" s="22">
+        <v>4</v>
+      </c>
+      <c r="G26" s="22">
+        <v>4</v>
+      </c>
+      <c r="H26" s="22">
+        <v>3</v>
+      </c>
+      <c r="I26" s="22">
+        <v>4</v>
+      </c>
+      <c r="J26" s="22">
+        <v>4</v>
+      </c>
+      <c r="K26" s="22">
+        <v>3</v>
+      </c>
+      <c r="L26" s="22">
+        <v>4</v>
+      </c>
+      <c r="M26" s="22">
         <v>4</v>
       </c>
       <c r="N26" s="4">
@@ -3102,37 +3102,37 @@
       <c r="B27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="33">
-        <v>4</v>
-      </c>
-      <c r="D27" s="34">
-        <v>4</v>
-      </c>
-      <c r="E27" s="34">
-        <v>4</v>
-      </c>
-      <c r="F27" s="34">
-        <v>3</v>
-      </c>
-      <c r="G27" s="34">
-        <v>4</v>
-      </c>
-      <c r="H27" s="34">
-        <v>4</v>
-      </c>
-      <c r="I27" s="34">
-        <v>3</v>
-      </c>
-      <c r="J27" s="34">
-        <v>4</v>
-      </c>
-      <c r="K27" s="34">
-        <v>4</v>
-      </c>
-      <c r="L27" s="34">
-        <v>3</v>
-      </c>
-      <c r="M27" s="34">
+      <c r="C27" s="21">
+        <v>4</v>
+      </c>
+      <c r="D27" s="22">
+        <v>4</v>
+      </c>
+      <c r="E27" s="22">
+        <v>4</v>
+      </c>
+      <c r="F27" s="22">
+        <v>3</v>
+      </c>
+      <c r="G27" s="22">
+        <v>4</v>
+      </c>
+      <c r="H27" s="22">
+        <v>4</v>
+      </c>
+      <c r="I27" s="22">
+        <v>3</v>
+      </c>
+      <c r="J27" s="22">
+        <v>4</v>
+      </c>
+      <c r="K27" s="22">
+        <v>4</v>
+      </c>
+      <c r="L27" s="22">
+        <v>3</v>
+      </c>
+      <c r="M27" s="22">
         <v>4</v>
       </c>
       <c r="N27" s="4">
@@ -3150,37 +3150,37 @@
       <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="33">
-        <v>4</v>
-      </c>
-      <c r="D28" s="34">
-        <v>3</v>
-      </c>
-      <c r="E28" s="34">
-        <v>4</v>
-      </c>
-      <c r="F28" s="34">
-        <v>3</v>
-      </c>
-      <c r="G28" s="34">
-        <v>4</v>
-      </c>
-      <c r="H28" s="34">
-        <v>4</v>
-      </c>
-      <c r="I28" s="34">
-        <v>4</v>
-      </c>
-      <c r="J28" s="34">
-        <v>4</v>
-      </c>
-      <c r="K28" s="34">
-        <v>3</v>
-      </c>
-      <c r="L28" s="34">
-        <v>4</v>
-      </c>
-      <c r="M28" s="34">
+      <c r="C28" s="21">
+        <v>4</v>
+      </c>
+      <c r="D28" s="22">
+        <v>3</v>
+      </c>
+      <c r="E28" s="22">
+        <v>4</v>
+      </c>
+      <c r="F28" s="22">
+        <v>3</v>
+      </c>
+      <c r="G28" s="22">
+        <v>4</v>
+      </c>
+      <c r="H28" s="22">
+        <v>4</v>
+      </c>
+      <c r="I28" s="22">
+        <v>4</v>
+      </c>
+      <c r="J28" s="22">
+        <v>4</v>
+      </c>
+      <c r="K28" s="22">
+        <v>3</v>
+      </c>
+      <c r="L28" s="22">
+        <v>4</v>
+      </c>
+      <c r="M28" s="22">
         <v>3</v>
       </c>
       <c r="N28" s="4">
@@ -3736,35 +3736,35 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="35">
+      <c r="C50" s="30"/>
+      <c r="D50" s="33">
         <f>AVERAGE(D36:D49,I36:I48)</f>
         <v>92.760942760942754</v>
       </c>
-      <c r="E50" s="29" t="str">
+      <c r="E50" s="35" t="str">
         <f>IF(AND(D50&gt;0,D50&lt;=20),"STL",IF(AND(D50&gt;20,D50&lt;=40),"TL",IF(AND(D50&gt;40,D50&lt;=60),"C",IF(AND(D50&gt;60,D50&lt;=80),"L",IF(AND(D50&gt;80,D50&lt;=100),"SL","")))))</f>
         <v>SL</v>
       </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="21"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="25"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="24"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
